--- a/Misc/UW2QuestVariables.xlsx
+++ b/Misc/UW2QuestVariables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063A5950-EC60-4C8D-B604-23F69B75D375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1CD6A-F245-4941-9932-B326B2277CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="955">
   <si>
     <t>Unknown</t>
   </si>
@@ -965,9 +965,6 @@
     <t>RelkDead</t>
   </si>
   <si>
-    <t>DorstagWillAcceptChallenge</t>
-  </si>
-  <si>
     <t>MystellAttacks</t>
   </si>
   <si>
@@ -1004,9 +1001,6 @@
     <t>BorneToKillBishop</t>
   </si>
   <si>
-    <t>BishopIsDead</t>
-  </si>
-  <si>
     <t>HelenaRequestSpeakToLoth</t>
   </si>
   <si>
@@ -1107,12 +1101,6 @@
   </si>
   <si>
     <t>IceCavernsLineOfPowerCut</t>
-  </si>
-  <si>
-    <t>MokpoStopDreaming</t>
-  </si>
-  <si>
-    <t>MystellStopDreaming</t>
   </si>
   <si>
     <t>GemIsWeak</t>
@@ -1983,9 +1971,6 @@
     <t>PreparationComplete</t>
   </si>
   <si>
-    <t>BishopIsMurdered</t>
-  </si>
-  <si>
     <t>SCD:  Fire KIll_NPC Bishop</t>
   </si>
   <si>
@@ -2248,9 +2233,6 @@
   </si>
   <si>
     <t>Blog (PoC)</t>
-  </si>
-  <si>
-    <t>Unknown where set (possibly after enough Arena victories)</t>
   </si>
   <si>
     <t>Garg if Q0=1</t>
@@ -2955,6 +2937,33 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>BlackrockGemsUsed</t>
+  </si>
+  <si>
+    <t>Sets world bit when a treated gem is used on the blackrock gem on L5</t>
+  </si>
+  <si>
+    <t>MystellDead</t>
+  </si>
+  <si>
+    <t>BlogDead</t>
+  </si>
+  <si>
+    <t>MokpoDead</t>
+  </si>
+  <si>
+    <t>Dorstag (will accept challenge)</t>
+  </si>
+  <si>
+    <t>On death (Making a guess on this one - could be a bug in Altara's conv)</t>
+  </si>
+  <si>
+    <t>BishopDead</t>
+  </si>
+  <si>
+    <t>BishopKilled</t>
   </si>
 </sst>
 </file>
@@ -3622,385 +3631,385 @@
         <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C1" t="s">
         <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>648</v>
+        <v>954</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>691</v>
+        <v>952</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B16" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B18" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B19" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -4008,79 +4017,79 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B20" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B21" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B22" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B23" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>0</v>
@@ -4088,193 +4097,193 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B24" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C24">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B26" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B27" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B28" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B30" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C30">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B31" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B32" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B33" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -4282,193 +4291,193 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C35">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C36">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B37" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C37">
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B38" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B39" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C39">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C40">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B41" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C41">
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C42">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B43" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C43">
         <v>41</v>
@@ -4476,10 +4485,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B44" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C44">
         <v>42</v>
@@ -4487,10 +4496,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B45" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C45">
         <v>43</v>
@@ -4499,64 +4508,64 @@
         <v>292</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B46" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C46">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B47" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C47">
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C48">
         <v>46</v>
@@ -4565,87 +4574,87 @@
         <v>293</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C49">
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B50" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C50">
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C51">
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C52">
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>294</v>
@@ -4653,70 +4662,70 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B53" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C53">
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C54">
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B55" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C55">
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>359</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>664</v>
+        <v>950</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>686</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C56">
         <v>54</v>
@@ -4725,21 +4734,21 @@
         <v>295</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C57">
         <v>55</v>
@@ -4748,27 +4757,27 @@
         <v>296</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>0</v>
@@ -4776,10 +4785,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C59">
         <v>57</v>
@@ -4788,38 +4797,38 @@
         <v>297</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C60">
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C61">
         <v>59</v>
@@ -4828,101 +4837,101 @@
         <v>298</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C62">
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C63">
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B64" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C64">
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C65">
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C66">
         <v>64</v>
@@ -4931,64 +4940,64 @@
         <v>299</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C67">
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>311</v>
+        <v>949</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>737</v>
+        <v>686</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>689</v>
+        <v>951</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C68">
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>360</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>664</v>
+        <v>948</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>686</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C69">
         <v>67</v>
@@ -4997,58 +5006,58 @@
         <v>300</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C70">
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B71" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C71">
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C72">
         <v>70</v>
@@ -5056,10 +5065,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C73">
         <v>71</v>
@@ -5067,10 +5076,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B74" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C74">
         <v>72</v>
@@ -5078,10 +5087,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C75">
         <v>73</v>
@@ -5089,10 +5098,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B76" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C76">
         <v>74</v>
@@ -5100,10 +5109,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B77" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C77">
         <v>75</v>
@@ -5111,10 +5120,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B78" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C78">
         <v>76</v>
@@ -5122,10 +5131,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B79" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C79">
         <v>77</v>
@@ -5133,10 +5142,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B80" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C80">
         <v>78</v>
@@ -5144,10 +5153,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B81" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C81">
         <v>79</v>
@@ -5155,10 +5164,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B82" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C82">
         <v>80</v>
@@ -5166,10 +5175,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B83" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C83">
         <v>81</v>
@@ -5177,10 +5186,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B84" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C84">
         <v>82</v>
@@ -5188,10 +5197,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B85" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C85">
         <v>83</v>
@@ -5199,10 +5208,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B86" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C86">
         <v>84</v>
@@ -5210,10 +5219,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B87" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C87">
         <v>85</v>
@@ -5221,10 +5230,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B88" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C88">
         <v>86</v>
@@ -5232,10 +5241,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B89" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C89">
         <v>87</v>
@@ -5243,10 +5252,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B90" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C90">
         <v>88</v>
@@ -5254,10 +5263,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B91" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C91">
         <v>89</v>
@@ -5265,10 +5274,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B92" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C92">
         <v>90</v>
@@ -5276,10 +5285,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B93" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C93">
         <v>91</v>
@@ -5287,10 +5296,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B94" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C94">
         <v>92</v>
@@ -5298,10 +5307,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B95" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C95">
         <v>93</v>
@@ -5309,10 +5318,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B96" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C96">
         <v>94</v>
@@ -5320,10 +5329,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B97" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C97">
         <v>95</v>
@@ -5331,10 +5340,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B98" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C98">
         <v>96</v>
@@ -5342,10 +5351,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B99" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C99">
         <v>97</v>
@@ -5353,10 +5362,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B100" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C100">
         <v>98</v>
@@ -5364,10 +5373,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B101" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C101">
         <v>99</v>
@@ -5375,10 +5384,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B102" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C102">
         <v>100</v>
@@ -5386,10 +5395,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B103" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C103">
         <v>101</v>
@@ -5397,10 +5406,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B104" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C104">
         <v>102</v>
@@ -5408,10 +5417,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B105" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C105">
         <v>103</v>
@@ -5419,30 +5428,30 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B106" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C106">
         <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B107" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C107">
         <v>105</v>
@@ -5454,61 +5463,61 @@
         <v>302</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B108" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C108">
         <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B109" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C109">
         <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B110" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C110">
         <v>108</v>
@@ -5519,10 +5528,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B111" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C111">
         <v>109</v>
@@ -5531,41 +5540,41 @@
         <v>303</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B112" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C112">
         <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B113" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C113">
         <v>111</v>
@@ -5574,18 +5583,18 @@
         <v>304</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B114" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C114">
         <v>112</v>
@@ -5594,24 +5603,24 @@
         <v>305</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B115" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C115">
         <v>113</v>
@@ -5620,78 +5629,78 @@
         <v>306</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B116" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C116">
         <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B117" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C117">
         <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B118" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C118">
         <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B119" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C119">
         <v>117</v>
@@ -5700,44 +5709,44 @@
         <v>307</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B120" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C120">
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B121" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C121">
         <v>119</v>
@@ -5746,38 +5755,38 @@
         <v>308</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B122" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C122">
         <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B123" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C123">
         <v>121</v>
@@ -5786,41 +5795,41 @@
         <v>309</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B124" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C124">
         <v>122</v>
       </c>
       <c r="D124" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B125" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C125">
         <v>123</v>
@@ -5829,18 +5838,18 @@
         <v>310</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B126" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C126">
         <v>124</v>
@@ -5848,30 +5857,30 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B127" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C127">
         <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B128" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C128">
         <v>126</v>
@@ -5879,10 +5888,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B129" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C129">
         <v>127</v>
@@ -5893,19 +5902,19 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C130">
         <v>128</v>
       </c>
       <c r="D130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -5913,19 +5922,19 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C131">
         <v>129</v>
       </c>
       <c r="D131" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
@@ -5933,10 +5942,16 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C132">
         <v>130</v>
+      </c>
+      <c r="D132" t="s">
+        <v>946</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
@@ -5944,19 +5959,19 @@
         <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C133">
         <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F133" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H133" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
@@ -5964,7 +5979,7 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C134">
         <v>132</v>
@@ -5975,16 +5990,16 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C135">
         <v>133</v>
       </c>
       <c r="D135" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -5992,19 +6007,19 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C136">
         <v>134</v>
       </c>
       <c r="D136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
@@ -6012,19 +6027,19 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C137">
         <v>135</v>
       </c>
       <c r="D137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
@@ -6032,7 +6047,7 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C138">
         <v>136</v>
@@ -6043,7 +6058,7 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C139">
         <v>137</v>
@@ -6054,7 +6069,7 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C140">
         <v>138</v>
@@ -6065,7 +6080,7 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C141">
         <v>139</v>
@@ -6076,7 +6091,7 @@
         <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C142">
         <v>140</v>
@@ -6087,7 +6102,7 @@
         <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C143">
         <v>141</v>
@@ -6098,7 +6113,7 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C144">
         <v>142</v>
@@ -6109,16 +6124,16 @@
         <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C145">
         <v>143</v>
       </c>
       <c r="D145" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -6126,7 +6141,7 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -6137,19 +6152,19 @@
         <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -6157,19 +6172,19 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -6177,7 +6192,7 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -6188,7 +6203,7 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -6199,7 +6214,7 @@
         <v>22</v>
       </c>
       <c r="B151" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -6210,19 +6225,19 @@
         <v>23</v>
       </c>
       <c r="B152" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C152">
         <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -6230,7 +6245,7 @@
         <v>24</v>
       </c>
       <c r="B153" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C153">
         <v>7</v>
@@ -6241,7 +6256,7 @@
         <v>25</v>
       </c>
       <c r="B154" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C154">
         <v>8</v>
@@ -6252,7 +6267,7 @@
         <v>26</v>
       </c>
       <c r="B155" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C155">
         <v>9</v>
@@ -6263,7 +6278,7 @@
         <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C156">
         <v>10</v>
@@ -6274,7 +6289,7 @@
         <v>28</v>
       </c>
       <c r="B157" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C157">
         <v>11</v>
@@ -6285,19 +6300,19 @@
         <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C158">
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -6305,7 +6320,7 @@
         <v>30</v>
       </c>
       <c r="B159" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C159">
         <v>13</v>
@@ -6316,7 +6331,7 @@
         <v>31</v>
       </c>
       <c r="B160" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C160">
         <v>14</v>
@@ -6327,7 +6342,7 @@
         <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C161">
         <v>15</v>
@@ -6338,7 +6353,7 @@
         <v>33</v>
       </c>
       <c r="B162" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C162">
         <v>16</v>
@@ -6349,7 +6364,7 @@
         <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C163">
         <v>17</v>
@@ -6360,7 +6375,7 @@
         <v>35</v>
       </c>
       <c r="B164" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C164">
         <v>18</v>
@@ -6371,7 +6386,7 @@
         <v>36</v>
       </c>
       <c r="B165" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C165">
         <v>19</v>
@@ -6382,7 +6397,7 @@
         <v>37</v>
       </c>
       <c r="B166" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C166">
         <v>20</v>
@@ -6393,7 +6408,7 @@
         <v>38</v>
       </c>
       <c r="B167" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C167">
         <v>21</v>
@@ -6404,7 +6419,7 @@
         <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C168">
         <v>22</v>
@@ -6415,7 +6430,7 @@
         <v>40</v>
       </c>
       <c r="B169" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C169">
         <v>23</v>
@@ -6426,7 +6441,7 @@
         <v>41</v>
       </c>
       <c r="B170" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C170">
         <v>24</v>
@@ -6437,7 +6452,7 @@
         <v>42</v>
       </c>
       <c r="B171" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C171">
         <v>25</v>
@@ -6448,7 +6463,7 @@
         <v>43</v>
       </c>
       <c r="B172" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C172">
         <v>26</v>
@@ -6459,7 +6474,7 @@
         <v>44</v>
       </c>
       <c r="B173" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C173">
         <v>27</v>
@@ -6470,7 +6485,7 @@
         <v>45</v>
       </c>
       <c r="B174" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C174">
         <v>28</v>
@@ -6481,7 +6496,7 @@
         <v>46</v>
       </c>
       <c r="B175" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C175">
         <v>29</v>
@@ -6492,7 +6507,7 @@
         <v>47</v>
       </c>
       <c r="B176" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C176">
         <v>30</v>
@@ -6503,19 +6518,19 @@
         <v>48</v>
       </c>
       <c r="B177" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C177">
         <v>31</v>
       </c>
       <c r="D177" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -6523,19 +6538,19 @@
         <v>49</v>
       </c>
       <c r="B178" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C178">
         <v>32</v>
       </c>
       <c r="D178" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -6543,19 +6558,19 @@
         <v>50</v>
       </c>
       <c r="B179" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C179">
         <v>33</v>
       </c>
       <c r="D179" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -6563,7 +6578,7 @@
         <v>51</v>
       </c>
       <c r="B180" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C180">
         <v>34</v>
@@ -6574,7 +6589,7 @@
         <v>52</v>
       </c>
       <c r="B181" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C181">
         <v>35</v>
@@ -6585,7 +6600,7 @@
         <v>53</v>
       </c>
       <c r="B182" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C182">
         <v>36</v>
@@ -6596,7 +6611,7 @@
         <v>54</v>
       </c>
       <c r="B183" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C183">
         <v>37</v>
@@ -6607,7 +6622,7 @@
         <v>55</v>
       </c>
       <c r="B184" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C184">
         <v>38</v>
@@ -6618,7 +6633,7 @@
         <v>56</v>
       </c>
       <c r="B185" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C185">
         <v>39</v>
@@ -6629,19 +6644,19 @@
         <v>57</v>
       </c>
       <c r="B186" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C186">
         <v>40</v>
       </c>
       <c r="D186" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -6649,7 +6664,7 @@
         <v>58</v>
       </c>
       <c r="B187" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C187">
         <v>41</v>
@@ -6660,19 +6675,19 @@
         <v>59</v>
       </c>
       <c r="B188" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C188">
         <v>42</v>
       </c>
       <c r="D188" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -6680,19 +6695,19 @@
         <v>60</v>
       </c>
       <c r="B189" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C189">
         <v>43</v>
       </c>
       <c r="D189" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -6700,7 +6715,7 @@
         <v>61</v>
       </c>
       <c r="B190" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C190">
         <v>44</v>
@@ -6711,7 +6726,7 @@
         <v>62</v>
       </c>
       <c r="B191" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C191">
         <v>45</v>
@@ -6722,7 +6737,7 @@
         <v>63</v>
       </c>
       <c r="B192" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C192">
         <v>46</v>
@@ -6733,7 +6748,7 @@
         <v>64</v>
       </c>
       <c r="B193" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C193">
         <v>47</v>
@@ -6744,7 +6759,7 @@
         <v>65</v>
       </c>
       <c r="B194" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C194">
         <v>48</v>
@@ -6755,7 +6770,7 @@
         <v>66</v>
       </c>
       <c r="B195" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C195">
         <v>49</v>
@@ -6766,19 +6781,19 @@
         <v>67</v>
       </c>
       <c r="B196" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C196">
         <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
@@ -6786,19 +6801,19 @@
         <v>68</v>
       </c>
       <c r="B197" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C197">
         <v>51</v>
       </c>
       <c r="D197" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
@@ -6806,22 +6821,22 @@
         <v>69</v>
       </c>
       <c r="B198" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C198">
         <v>52</v>
       </c>
       <c r="D198" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
@@ -6829,7 +6844,7 @@
         <v>70</v>
       </c>
       <c r="B199" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C199">
         <v>53</v>
@@ -6840,7 +6855,7 @@
         <v>71</v>
       </c>
       <c r="B200" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C200">
         <v>54</v>
@@ -6851,7 +6866,7 @@
         <v>72</v>
       </c>
       <c r="B201" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C201">
         <v>55</v>
@@ -6862,7 +6877,7 @@
         <v>73</v>
       </c>
       <c r="B202" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C202">
         <v>56</v>
@@ -6873,7 +6888,7 @@
         <v>74</v>
       </c>
       <c r="B203" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C203">
         <v>57</v>
@@ -6884,7 +6899,7 @@
         <v>75</v>
       </c>
       <c r="B204" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C204">
         <v>58</v>
@@ -6895,7 +6910,7 @@
         <v>76</v>
       </c>
       <c r="B205" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C205">
         <v>59</v>
@@ -6906,7 +6921,7 @@
         <v>77</v>
       </c>
       <c r="B206" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C206">
         <v>60</v>
@@ -6917,7 +6932,7 @@
         <v>78</v>
       </c>
       <c r="B207" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C207">
         <v>61</v>
@@ -6928,7 +6943,7 @@
         <v>79</v>
       </c>
       <c r="B208" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C208">
         <v>62</v>
@@ -6939,7 +6954,7 @@
         <v>80</v>
       </c>
       <c r="B209" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C209">
         <v>63</v>
@@ -6950,7 +6965,7 @@
         <v>81</v>
       </c>
       <c r="B210" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C210">
         <v>64</v>
@@ -6961,7 +6976,7 @@
         <v>82</v>
       </c>
       <c r="B211" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C211">
         <v>65</v>
@@ -6972,7 +6987,7 @@
         <v>83</v>
       </c>
       <c r="B212" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C212">
         <v>66</v>
@@ -6983,7 +6998,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C213">
         <v>67</v>
@@ -6994,7 +7009,7 @@
         <v>85</v>
       </c>
       <c r="B214" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C214">
         <v>68</v>
@@ -7005,7 +7020,7 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C215">
         <v>69</v>
@@ -7016,7 +7031,7 @@
         <v>87</v>
       </c>
       <c r="B216" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C216">
         <v>70</v>
@@ -7027,7 +7042,7 @@
         <v>88</v>
       </c>
       <c r="B217" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C217">
         <v>71</v>
@@ -7038,7 +7053,7 @@
         <v>89</v>
       </c>
       <c r="B218" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C218">
         <v>72</v>
@@ -7049,7 +7064,7 @@
         <v>90</v>
       </c>
       <c r="B219" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C219">
         <v>73</v>
@@ -7060,7 +7075,7 @@
         <v>91</v>
       </c>
       <c r="B220" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C220">
         <v>74</v>
@@ -7071,7 +7086,7 @@
         <v>92</v>
       </c>
       <c r="B221" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C221">
         <v>75</v>
@@ -7082,7 +7097,7 @@
         <v>93</v>
       </c>
       <c r="B222" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C222">
         <v>76</v>
@@ -7093,7 +7108,7 @@
         <v>94</v>
       </c>
       <c r="B223" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C223">
         <v>77</v>
@@ -7104,7 +7119,7 @@
         <v>95</v>
       </c>
       <c r="B224" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C224">
         <v>78</v>
@@ -7115,7 +7130,7 @@
         <v>96</v>
       </c>
       <c r="B225" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C225">
         <v>79</v>
@@ -7126,7 +7141,7 @@
         <v>97</v>
       </c>
       <c r="B226" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C226">
         <v>80</v>
@@ -7137,7 +7152,7 @@
         <v>98</v>
       </c>
       <c r="B227" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C227">
         <v>81</v>
@@ -7148,7 +7163,7 @@
         <v>99</v>
       </c>
       <c r="B228" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C228">
         <v>82</v>
@@ -7159,7 +7174,7 @@
         <v>100</v>
       </c>
       <c r="B229" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C229">
         <v>83</v>
@@ -7170,7 +7185,7 @@
         <v>101</v>
       </c>
       <c r="B230" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C230">
         <v>84</v>
@@ -7181,7 +7196,7 @@
         <v>102</v>
       </c>
       <c r="B231" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C231">
         <v>85</v>
@@ -7192,7 +7207,7 @@
         <v>103</v>
       </c>
       <c r="B232" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C232">
         <v>86</v>
@@ -7203,7 +7218,7 @@
         <v>104</v>
       </c>
       <c r="B233" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C233">
         <v>87</v>
@@ -7214,7 +7229,7 @@
         <v>105</v>
       </c>
       <c r="B234" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C234">
         <v>88</v>
@@ -7225,7 +7240,7 @@
         <v>106</v>
       </c>
       <c r="B235" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C235">
         <v>89</v>
@@ -7236,19 +7251,19 @@
         <v>107</v>
       </c>
       <c r="B236" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C236">
         <v>90</v>
       </c>
       <c r="D236" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -7256,7 +7271,7 @@
         <v>108</v>
       </c>
       <c r="B237" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C237">
         <v>91</v>
@@ -7267,7 +7282,7 @@
         <v>109</v>
       </c>
       <c r="B238" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C238">
         <v>92</v>
@@ -7278,7 +7293,7 @@
         <v>110</v>
       </c>
       <c r="B239" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C239">
         <v>93</v>
@@ -7289,7 +7304,7 @@
         <v>111</v>
       </c>
       <c r="B240" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C240">
         <v>94</v>
@@ -7300,7 +7315,7 @@
         <v>112</v>
       </c>
       <c r="B241" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C241">
         <v>95</v>
@@ -7311,7 +7326,7 @@
         <v>113</v>
       </c>
       <c r="B242" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C242">
         <v>96</v>
@@ -7322,7 +7337,7 @@
         <v>114</v>
       </c>
       <c r="B243" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C243">
         <v>97</v>
@@ -7333,7 +7348,7 @@
         <v>115</v>
       </c>
       <c r="B244" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C244">
         <v>98</v>
@@ -7344,7 +7359,7 @@
         <v>116</v>
       </c>
       <c r="B245" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C245">
         <v>99</v>
@@ -7355,16 +7370,16 @@
         <v>117</v>
       </c>
       <c r="B246" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C246">
         <v>100</v>
       </c>
       <c r="D246" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
@@ -7372,13 +7387,13 @@
         <v>118</v>
       </c>
       <c r="B247" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C247">
         <v>101</v>
       </c>
       <c r="D247" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
@@ -7386,13 +7401,13 @@
         <v>119</v>
       </c>
       <c r="B248" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C248">
         <v>102</v>
       </c>
       <c r="D248" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
@@ -7400,13 +7415,13 @@
         <v>120</v>
       </c>
       <c r="B249" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C249">
         <v>103</v>
       </c>
       <c r="D249" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
@@ -7414,13 +7429,13 @@
         <v>121</v>
       </c>
       <c r="B250" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C250">
         <v>104</v>
       </c>
       <c r="D250" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
@@ -7428,13 +7443,13 @@
         <v>122</v>
       </c>
       <c r="B251" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C251">
         <v>105</v>
       </c>
       <c r="D251" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
@@ -7442,13 +7457,13 @@
         <v>123</v>
       </c>
       <c r="B252" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C252">
         <v>106</v>
       </c>
       <c r="D252" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
@@ -7456,13 +7471,13 @@
         <v>124</v>
       </c>
       <c r="B253" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C253">
         <v>107</v>
       </c>
       <c r="D253" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
@@ -7470,13 +7485,13 @@
         <v>125</v>
       </c>
       <c r="B254" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C254">
         <v>108</v>
       </c>
       <c r="D254" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
@@ -7484,7 +7499,7 @@
         <v>126</v>
       </c>
       <c r="B255" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C255">
         <v>109</v>
@@ -7495,7 +7510,7 @@
         <v>127</v>
       </c>
       <c r="B256" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C256">
         <v>110</v>
@@ -7506,7 +7521,7 @@
         <v>128</v>
       </c>
       <c r="B257" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C257">
         <v>111</v>
@@ -7517,7 +7532,7 @@
         <v>129</v>
       </c>
       <c r="B258" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C258">
         <v>112</v>
@@ -7528,7 +7543,7 @@
         <v>130</v>
       </c>
       <c r="B259" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C259">
         <v>113</v>
@@ -7539,7 +7554,7 @@
         <v>131</v>
       </c>
       <c r="B260" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C260">
         <v>114</v>
@@ -7550,7 +7565,7 @@
         <v>132</v>
       </c>
       <c r="B261" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C261">
         <v>115</v>
@@ -7561,7 +7576,7 @@
         <v>133</v>
       </c>
       <c r="B262" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C262">
         <v>116</v>
@@ -7572,7 +7587,7 @@
         <v>134</v>
       </c>
       <c r="B263" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C263">
         <v>117</v>
@@ -7583,7 +7598,7 @@
         <v>135</v>
       </c>
       <c r="B264" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C264">
         <v>118</v>
@@ -7594,7 +7609,7 @@
         <v>136</v>
       </c>
       <c r="B265" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C265">
         <v>119</v>
@@ -7605,7 +7620,7 @@
         <v>137</v>
       </c>
       <c r="B266" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C266">
         <v>120</v>
@@ -7616,7 +7631,7 @@
         <v>138</v>
       </c>
       <c r="B267" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C267">
         <v>121</v>
@@ -7627,7 +7642,7 @@
         <v>139</v>
       </c>
       <c r="B268" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C268">
         <v>122</v>
@@ -7638,7 +7653,7 @@
         <v>140</v>
       </c>
       <c r="B269" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C269">
         <v>123</v>
@@ -7649,7 +7664,7 @@
         <v>141</v>
       </c>
       <c r="B270" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C270">
         <v>124</v>
@@ -7660,7 +7675,7 @@
         <v>142</v>
       </c>
       <c r="B271" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C271">
         <v>125</v>
@@ -7671,7 +7686,7 @@
         <v>143</v>
       </c>
       <c r="B272" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C272">
         <v>126</v>
@@ -7682,7 +7697,7 @@
         <v>144</v>
       </c>
       <c r="B273" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C273">
         <v>127</v>
@@ -7693,7 +7708,7 @@
         <v>145</v>
       </c>
       <c r="B274" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -7704,7 +7719,7 @@
         <v>146</v>
       </c>
       <c r="B275" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -7715,7 +7730,7 @@
         <v>147</v>
       </c>
       <c r="B276" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C276">
         <v>2</v>
@@ -7726,7 +7741,7 @@
         <v>148</v>
       </c>
       <c r="B277" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C277">
         <v>3</v>
@@ -7737,7 +7752,7 @@
         <v>149</v>
       </c>
       <c r="B278" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C278">
         <v>4</v>
@@ -7748,7 +7763,7 @@
         <v>150</v>
       </c>
       <c r="B279" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C279">
         <v>5</v>
@@ -7759,7 +7774,7 @@
         <v>151</v>
       </c>
       <c r="B280" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C280">
         <v>6</v>
@@ -7770,7 +7785,7 @@
         <v>152</v>
       </c>
       <c r="B281" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C281">
         <v>7</v>
@@ -7781,7 +7796,7 @@
         <v>153</v>
       </c>
       <c r="B282" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C282">
         <v>8</v>
@@ -7792,7 +7807,7 @@
         <v>154</v>
       </c>
       <c r="B283" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C283">
         <v>9</v>
@@ -7803,7 +7818,7 @@
         <v>155</v>
       </c>
       <c r="B284" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C284">
         <v>10</v>
@@ -7814,7 +7829,7 @@
         <v>156</v>
       </c>
       <c r="B285" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C285">
         <v>11</v>
@@ -7825,7 +7840,7 @@
         <v>157</v>
       </c>
       <c r="B286" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C286">
         <v>12</v>
@@ -7836,7 +7851,7 @@
         <v>158</v>
       </c>
       <c r="B287" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C287">
         <v>13</v>
@@ -7847,7 +7862,7 @@
         <v>159</v>
       </c>
       <c r="B288" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C288">
         <v>14</v>
@@ -7858,7 +7873,7 @@
         <v>160</v>
       </c>
       <c r="B289" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C289">
         <v>15</v>
@@ -7869,7 +7884,7 @@
         <v>161</v>
       </c>
       <c r="B290" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C290">
         <v>16</v>
@@ -7880,16 +7895,16 @@
         <v>162</v>
       </c>
       <c r="B291" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C291">
         <v>17</v>
       </c>
       <c r="D291" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
@@ -7897,7 +7912,7 @@
         <v>163</v>
       </c>
       <c r="B292" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C292">
         <v>18</v>
@@ -7908,7 +7923,7 @@
         <v>164</v>
       </c>
       <c r="B293" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C293">
         <v>19</v>
@@ -7919,7 +7934,7 @@
         <v>165</v>
       </c>
       <c r="B294" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C294">
         <v>20</v>
@@ -7930,7 +7945,7 @@
         <v>166</v>
       </c>
       <c r="B295" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C295">
         <v>21</v>
@@ -7941,7 +7956,7 @@
         <v>167</v>
       </c>
       <c r="B296" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C296">
         <v>22</v>
@@ -7952,7 +7967,7 @@
         <v>168</v>
       </c>
       <c r="B297" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C297">
         <v>23</v>
@@ -7963,7 +7978,7 @@
         <v>169</v>
       </c>
       <c r="B298" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C298">
         <v>24</v>
@@ -7974,7 +7989,7 @@
         <v>170</v>
       </c>
       <c r="B299" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C299">
         <v>25</v>
@@ -7985,7 +8000,7 @@
         <v>171</v>
       </c>
       <c r="B300" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C300">
         <v>26</v>
@@ -7996,7 +8011,7 @@
         <v>172</v>
       </c>
       <c r="B301" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C301">
         <v>27</v>
@@ -8007,7 +8022,7 @@
         <v>173</v>
       </c>
       <c r="B302" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C302">
         <v>28</v>
@@ -8018,7 +8033,7 @@
         <v>174</v>
       </c>
       <c r="B303" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C303">
         <v>29</v>
@@ -8029,7 +8044,7 @@
         <v>175</v>
       </c>
       <c r="B304" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C304">
         <v>30</v>
@@ -8040,7 +8055,7 @@
         <v>176</v>
       </c>
       <c r="B305" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C305">
         <v>31</v>
@@ -8051,19 +8066,19 @@
         <v>177</v>
       </c>
       <c r="B306" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C306">
         <v>32</v>
       </c>
       <c r="D306" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
@@ -8071,7 +8086,7 @@
         <v>178</v>
       </c>
       <c r="B307" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C307">
         <v>33</v>
@@ -8082,7 +8097,7 @@
         <v>179</v>
       </c>
       <c r="B308" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C308">
         <v>34</v>
@@ -8093,7 +8108,7 @@
         <v>180</v>
       </c>
       <c r="B309" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C309">
         <v>35</v>
@@ -8104,7 +8119,7 @@
         <v>181</v>
       </c>
       <c r="B310" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C310">
         <v>36</v>
@@ -8115,7 +8130,7 @@
         <v>182</v>
       </c>
       <c r="B311" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C311">
         <v>37</v>
@@ -8126,7 +8141,7 @@
         <v>183</v>
       </c>
       <c r="B312" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C312">
         <v>38</v>
@@ -8137,7 +8152,7 @@
         <v>184</v>
       </c>
       <c r="B313" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C313">
         <v>39</v>
@@ -8148,7 +8163,7 @@
         <v>185</v>
       </c>
       <c r="B314" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C314">
         <v>40</v>
@@ -8159,7 +8174,7 @@
         <v>186</v>
       </c>
       <c r="B315" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C315">
         <v>41</v>
@@ -8170,7 +8185,7 @@
         <v>187</v>
       </c>
       <c r="B316" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C316">
         <v>42</v>
@@ -8181,7 +8196,7 @@
         <v>188</v>
       </c>
       <c r="B317" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C317">
         <v>43</v>
@@ -8192,7 +8207,7 @@
         <v>189</v>
       </c>
       <c r="B318" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C318">
         <v>44</v>
@@ -8203,7 +8218,7 @@
         <v>190</v>
       </c>
       <c r="B319" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C319">
         <v>45</v>
@@ -8214,7 +8229,7 @@
         <v>191</v>
       </c>
       <c r="B320" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C320">
         <v>46</v>
@@ -8225,7 +8240,7 @@
         <v>192</v>
       </c>
       <c r="B321" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C321">
         <v>47</v>
@@ -8236,7 +8251,7 @@
         <v>193</v>
       </c>
       <c r="B322" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C322">
         <v>48</v>
@@ -8247,7 +8262,7 @@
         <v>194</v>
       </c>
       <c r="B323" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C323">
         <v>49</v>
@@ -8258,7 +8273,7 @@
         <v>195</v>
       </c>
       <c r="B324" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C324">
         <v>50</v>
@@ -8269,7 +8284,7 @@
         <v>196</v>
       </c>
       <c r="B325" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C325">
         <v>51</v>
@@ -8280,7 +8295,7 @@
         <v>197</v>
       </c>
       <c r="B326" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C326">
         <v>52</v>
@@ -8291,7 +8306,7 @@
         <v>198</v>
       </c>
       <c r="B327" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C327">
         <v>53</v>
@@ -8302,7 +8317,7 @@
         <v>199</v>
       </c>
       <c r="B328" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C328">
         <v>54</v>
@@ -8313,7 +8328,7 @@
         <v>200</v>
       </c>
       <c r="B329" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C329">
         <v>55</v>
@@ -8324,7 +8339,7 @@
         <v>201</v>
       </c>
       <c r="B330" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C330">
         <v>56</v>
@@ -8335,7 +8350,7 @@
         <v>202</v>
       </c>
       <c r="B331" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C331">
         <v>57</v>
@@ -8346,7 +8361,7 @@
         <v>203</v>
       </c>
       <c r="B332" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C332">
         <v>58</v>
@@ -8357,7 +8372,7 @@
         <v>204</v>
       </c>
       <c r="B333" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C333">
         <v>59</v>
@@ -8368,7 +8383,7 @@
         <v>205</v>
       </c>
       <c r="B334" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C334">
         <v>60</v>
@@ -8379,7 +8394,7 @@
         <v>206</v>
       </c>
       <c r="B335" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C335">
         <v>61</v>
@@ -8390,7 +8405,7 @@
         <v>207</v>
       </c>
       <c r="B336" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C336">
         <v>62</v>
@@ -8401,7 +8416,7 @@
         <v>208</v>
       </c>
       <c r="B337" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C337">
         <v>63</v>
@@ -8412,7 +8427,7 @@
         <v>209</v>
       </c>
       <c r="B338" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C338">
         <v>64</v>
@@ -8423,7 +8438,7 @@
         <v>210</v>
       </c>
       <c r="B339" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C339">
         <v>65</v>
@@ -8434,7 +8449,7 @@
         <v>211</v>
       </c>
       <c r="B340" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C340">
         <v>66</v>
@@ -8445,7 +8460,7 @@
         <v>212</v>
       </c>
       <c r="B341" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C341">
         <v>67</v>
@@ -8456,7 +8471,7 @@
         <v>213</v>
       </c>
       <c r="B342" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C342">
         <v>68</v>
@@ -8467,7 +8482,7 @@
         <v>214</v>
       </c>
       <c r="B343" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C343">
         <v>69</v>
@@ -8478,7 +8493,7 @@
         <v>215</v>
       </c>
       <c r="B344" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C344">
         <v>70</v>
@@ -8489,7 +8504,7 @@
         <v>216</v>
       </c>
       <c r="B345" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C345">
         <v>71</v>
@@ -8500,19 +8515,19 @@
         <v>217</v>
       </c>
       <c r="B346" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C346">
         <v>72</v>
       </c>
       <c r="D346" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E346" s="7" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.35">
@@ -8520,19 +8535,19 @@
         <v>218</v>
       </c>
       <c r="B347" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C347">
         <v>73</v>
       </c>
       <c r="D347" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E347" s="7" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.35">
@@ -8540,7 +8555,7 @@
         <v>219</v>
       </c>
       <c r="B348" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C348">
         <v>74</v>
@@ -8551,7 +8566,7 @@
         <v>220</v>
       </c>
       <c r="B349" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C349">
         <v>75</v>
@@ -8562,7 +8577,7 @@
         <v>221</v>
       </c>
       <c r="B350" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C350">
         <v>76</v>
@@ -8573,7 +8588,7 @@
         <v>222</v>
       </c>
       <c r="B351" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C351">
         <v>77</v>
@@ -8584,7 +8599,7 @@
         <v>223</v>
       </c>
       <c r="B352" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C352">
         <v>78</v>
@@ -8595,7 +8610,7 @@
         <v>224</v>
       </c>
       <c r="B353" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C353">
         <v>79</v>
@@ -8606,7 +8621,7 @@
         <v>225</v>
       </c>
       <c r="B354" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C354">
         <v>80</v>
@@ -8617,7 +8632,7 @@
         <v>226</v>
       </c>
       <c r="B355" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C355">
         <v>81</v>
@@ -8628,7 +8643,7 @@
         <v>227</v>
       </c>
       <c r="B356" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C356">
         <v>82</v>
@@ -8639,7 +8654,7 @@
         <v>228</v>
       </c>
       <c r="B357" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C357">
         <v>83</v>
@@ -8650,7 +8665,7 @@
         <v>229</v>
       </c>
       <c r="B358" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C358">
         <v>84</v>
@@ -8661,7 +8676,7 @@
         <v>230</v>
       </c>
       <c r="B359" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C359">
         <v>85</v>
@@ -8672,7 +8687,7 @@
         <v>231</v>
       </c>
       <c r="B360" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C360">
         <v>86</v>
@@ -8683,7 +8698,7 @@
         <v>232</v>
       </c>
       <c r="B361" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C361">
         <v>87</v>
@@ -8694,7 +8709,7 @@
         <v>233</v>
       </c>
       <c r="B362" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C362">
         <v>88</v>
@@ -8705,7 +8720,7 @@
         <v>234</v>
       </c>
       <c r="B363" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C363">
         <v>89</v>
@@ -8716,7 +8731,7 @@
         <v>235</v>
       </c>
       <c r="B364" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C364">
         <v>90</v>
@@ -8727,7 +8742,7 @@
         <v>236</v>
       </c>
       <c r="B365" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C365">
         <v>91</v>
@@ -8738,7 +8753,7 @@
         <v>237</v>
       </c>
       <c r="B366" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C366">
         <v>92</v>
@@ -8749,7 +8764,7 @@
         <v>238</v>
       </c>
       <c r="B367" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C367">
         <v>93</v>
@@ -8760,7 +8775,7 @@
         <v>239</v>
       </c>
       <c r="B368" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C368">
         <v>94</v>
@@ -8771,7 +8786,7 @@
         <v>240</v>
       </c>
       <c r="B369" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C369">
         <v>95</v>
@@ -8782,7 +8797,7 @@
         <v>241</v>
       </c>
       <c r="B370" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C370">
         <v>96</v>
@@ -8793,7 +8808,7 @@
         <v>242</v>
       </c>
       <c r="B371" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C371">
         <v>97</v>
@@ -8804,7 +8819,7 @@
         <v>243</v>
       </c>
       <c r="B372" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C372">
         <v>98</v>
@@ -8815,7 +8830,7 @@
         <v>244</v>
       </c>
       <c r="B373" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C373">
         <v>99</v>
@@ -8826,7 +8841,7 @@
         <v>245</v>
       </c>
       <c r="B374" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C374">
         <v>100</v>
@@ -8837,7 +8852,7 @@
         <v>246</v>
       </c>
       <c r="B375" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C375">
         <v>101</v>
@@ -8848,7 +8863,7 @@
         <v>247</v>
       </c>
       <c r="B376" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C376">
         <v>102</v>
@@ -8859,7 +8874,7 @@
         <v>248</v>
       </c>
       <c r="B377" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C377">
         <v>103</v>
@@ -8870,7 +8885,7 @@
         <v>249</v>
       </c>
       <c r="B378" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C378">
         <v>104</v>
@@ -8881,7 +8896,7 @@
         <v>250</v>
       </c>
       <c r="B379" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C379">
         <v>105</v>
@@ -8892,7 +8907,7 @@
         <v>251</v>
       </c>
       <c r="B380" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C380">
         <v>106</v>
@@ -8903,7 +8918,7 @@
         <v>252</v>
       </c>
       <c r="B381" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C381">
         <v>107</v>
@@ -8914,7 +8929,7 @@
         <v>253</v>
       </c>
       <c r="B382" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C382">
         <v>108</v>
@@ -8925,7 +8940,7 @@
         <v>254</v>
       </c>
       <c r="B383" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C383">
         <v>109</v>
@@ -8936,7 +8951,7 @@
         <v>255</v>
       </c>
       <c r="B384" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C384">
         <v>110</v>
@@ -8947,7 +8962,7 @@
         <v>256</v>
       </c>
       <c r="B385" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C385">
         <v>111</v>
@@ -8958,7 +8973,7 @@
         <v>257</v>
       </c>
       <c r="B386" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C386">
         <v>112</v>
@@ -8969,19 +8984,19 @@
         <v>258</v>
       </c>
       <c r="B387" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C387">
         <v>113</v>
       </c>
       <c r="D387" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F387" s="7" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="H387" s="7" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.35">
@@ -8989,19 +9004,19 @@
         <v>259</v>
       </c>
       <c r="B388" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C388">
         <v>114</v>
       </c>
       <c r="D388" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F388" s="7" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.35">
@@ -9009,19 +9024,19 @@
         <v>260</v>
       </c>
       <c r="B389" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C389">
         <v>115</v>
       </c>
       <c r="D389" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F389" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.35">
@@ -9029,19 +9044,19 @@
         <v>261</v>
       </c>
       <c r="B390" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C390">
         <v>116</v>
       </c>
       <c r="D390" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F390" s="7" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.35">
@@ -9049,19 +9064,19 @@
         <v>262</v>
       </c>
       <c r="B391" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C391">
         <v>117</v>
       </c>
       <c r="D391" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F391" s="7" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.35">
@@ -9069,16 +9084,16 @@
         <v>263</v>
       </c>
       <c r="B392" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C392">
         <v>118</v>
       </c>
       <c r="D392" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F392" s="7" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.35">
@@ -9086,7 +9101,7 @@
         <v>264</v>
       </c>
       <c r="B393" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C393">
         <v>119</v>
@@ -9097,7 +9112,7 @@
         <v>265</v>
       </c>
       <c r="B394" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C394">
         <v>120</v>
@@ -9108,7 +9123,7 @@
         <v>266</v>
       </c>
       <c r="B395" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C395">
         <v>121</v>
@@ -9119,7 +9134,7 @@
         <v>267</v>
       </c>
       <c r="B396" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C396">
         <v>122</v>
@@ -9130,7 +9145,7 @@
         <v>268</v>
       </c>
       <c r="B397" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C397">
         <v>123</v>
@@ -9141,7 +9156,7 @@
         <v>269</v>
       </c>
       <c r="B398" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C398">
         <v>124</v>
@@ -9152,7 +9167,7 @@
         <v>270</v>
       </c>
       <c r="B399" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C399">
         <v>125</v>
@@ -9163,7 +9178,7 @@
         <v>271</v>
       </c>
       <c r="B400" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C400">
         <v>126</v>
@@ -9174,19 +9189,19 @@
         <v>272</v>
       </c>
       <c r="B401" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C401">
         <v>127</v>
       </c>
       <c r="D401" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="F401" s="7" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -9220,22 +9235,22 @@
         <v>290</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
@@ -9249,17 +9264,17 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -9273,10 +9288,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -9293,10 +9308,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -9310,13 +9325,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -9330,10 +9345,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -9347,10 +9362,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -9364,10 +9379,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -9381,10 +9396,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -9398,10 +9413,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -9415,13 +9430,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -9435,10 +9450,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -9452,10 +9467,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -9469,10 +9484,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -9486,10 +9501,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -9503,10 +9518,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -9520,13 +9535,13 @@
         <v>15</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -9540,10 +9555,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -9557,10 +9572,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -9574,10 +9589,10 @@
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -9591,10 +9606,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -9608,10 +9623,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -9625,13 +9640,13 @@
         <v>21</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -9645,10 +9660,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -9662,10 +9677,10 @@
         <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -9679,13 +9694,13 @@
         <v>24</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -9699,10 +9714,10 @@
         <v>25</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -9716,10 +9731,10 @@
         <v>26</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -9733,13 +9748,13 @@
         <v>27</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -9753,10 +9768,10 @@
         <v>28</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -9770,10 +9785,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -9787,10 +9802,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -9804,10 +9819,10 @@
         <v>31</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -9821,10 +9836,10 @@
         <v>32</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -9838,13 +9853,13 @@
         <v>33</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -9858,10 +9873,10 @@
         <v>34</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -9875,10 +9890,10 @@
         <v>35</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -9892,10 +9907,10 @@
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -9909,10 +9924,10 @@
         <v>37</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -9926,10 +9941,10 @@
         <v>38</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -9943,13 +9958,13 @@
         <v>39</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -9963,10 +9978,10 @@
         <v>40</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -9980,10 +9995,10 @@
         <v>41</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -9997,10 +10012,10 @@
         <v>42</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -10014,10 +10029,10 @@
         <v>43</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -10031,10 +10046,10 @@
         <v>44</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -10048,13 +10063,13 @@
         <v>45</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -10068,10 +10083,10 @@
         <v>46</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -10085,10 +10100,10 @@
         <v>47</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -10102,13 +10117,13 @@
         <v>48</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -10122,10 +10137,10 @@
         <v>49</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -10139,10 +10154,10 @@
         <v>50</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -10156,13 +10171,13 @@
         <v>51</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -10176,10 +10191,10 @@
         <v>52</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -10193,10 +10208,10 @@
         <v>53</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -10210,10 +10225,10 @@
         <v>54</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -10227,10 +10242,10 @@
         <v>55</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -10244,10 +10259,10 @@
         <v>56</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -10261,13 +10276,13 @@
         <v>57</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -10281,10 +10296,10 @@
         <v>58</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -10298,10 +10313,10 @@
         <v>59</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -10315,10 +10330,10 @@
         <v>60</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -10332,10 +10347,10 @@
         <v>61</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -10349,10 +10364,10 @@
         <v>62</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -10366,13 +10381,13 @@
         <v>63</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -10386,10 +10401,10 @@
         <v>64</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -10403,10 +10418,10 @@
         <v>65</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -10420,10 +10435,10 @@
         <v>67</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -10437,10 +10452,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -10454,13 +10469,13 @@
         <v>69</v>
       </c>
       <c r="D70" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -10474,10 +10489,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -10491,10 +10506,10 @@
         <v>71</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -10508,10 +10523,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -10525,10 +10540,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -10542,10 +10557,10 @@
         <v>1</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -10559,10 +10574,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -10576,16 +10591,16 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -10599,13 +10614,13 @@
         <v>4</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -10619,14 +10634,14 @@
         <v>5</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="F79" s="14"/>
       <c r="H79" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -10640,17 +10655,17 @@
         <v>6</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -10664,16 +10679,16 @@
         <v>7</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -10687,16 +10702,16 @@
         <v>8</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -10710,14 +10725,14 @@
         <v>9</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="F83" s="14"/>
       <c r="H83" s="1" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -10731,17 +10746,17 @@
         <v>10</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="87" x14ac:dyDescent="0.35">
@@ -10755,15 +10770,15 @@
         <v>11</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -10777,16 +10792,16 @@
         <v>12</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="87" x14ac:dyDescent="0.35">
@@ -10800,17 +10815,17 @@
         <v>13</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="145" x14ac:dyDescent="0.35">
@@ -10824,15 +10839,15 @@
         <v>14</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="1" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
@@ -10846,16 +10861,16 @@
         <v>15</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="116" x14ac:dyDescent="0.35">
@@ -10869,16 +10884,16 @@
         <v>16</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -10892,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -10906,10 +10921,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F92" s="14"/>
     </row>
@@ -10924,10 +10939,10 @@
         <v>2</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F93" s="14"/>
     </row>
@@ -10942,10 +10957,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F94" s="14"/>
     </row>
@@ -10960,10 +10975,10 @@
         <v>4</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F95" s="14"/>
     </row>
@@ -10978,10 +10993,10 @@
         <v>5</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F96" s="14"/>
     </row>
@@ -10996,10 +11011,10 @@
         <v>6</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F97" s="14"/>
     </row>
@@ -11014,14 +11029,14 @@
         <v>7</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F98" s="14"/>
       <c r="H98" s="1" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -11035,14 +11050,14 @@
         <v>8</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F99" s="14"/>
       <c r="H99" s="1" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -11056,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -11070,10 +11085,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -11087,13 +11102,13 @@
         <v>2</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -11107,13 +11122,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -11127,10 +11142,10 @@
         <v>4</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -11144,10 +11159,10 @@
         <v>5</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -11161,13 +11176,13 @@
         <v>6</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -11291,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11305,13 +11320,13 @@
         <v>1</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11325,13 +11340,13 @@
         <v>2</v>
       </c>
       <c r="D119" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11345,13 +11360,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11365,13 +11380,13 @@
         <v>4</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11385,13 +11400,13 @@
         <v>5</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11405,13 +11420,13 @@
         <v>6</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11425,13 +11440,13 @@
         <v>7</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11442,16 +11457,16 @@
         <v>15</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/UW2QuestVariables.xlsx
+++ b/Misc/UW2QuestVariables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1CD6A-F245-4941-9932-B326B2277CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DC31A7-9BB2-44B7-B565-265CF7F6078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="953">
   <si>
     <t>Unknown</t>
   </si>
@@ -1895,12 +1895,6 @@
     <t>EnteredSewers</t>
   </si>
   <si>
-    <t>RestlessServants</t>
-  </si>
-  <si>
-    <t>Set by Miranda (+1 if 7)</t>
-  </si>
-  <si>
     <t>BlackrockGemUsed1</t>
   </si>
   <si>
@@ -1944,12 +1938,6 @@
   </si>
   <si>
     <t>SCDCounter</t>
-  </si>
-  <si>
-    <t>MorsGothaInKillorn</t>
-  </si>
-  <si>
-    <t>EndGame</t>
   </si>
   <si>
     <t>BlogTookGem</t>
@@ -1968,9 +1956,6 @@
     <t>SpeakToNelson</t>
   </si>
   <si>
-    <t>PreparationComplete</t>
-  </si>
-  <si>
     <t>SCD:  Fire KIll_NPC Bishop</t>
   </si>
   <si>
@@ -2322,9 +2307,6 @@
     <t>Enter trigger (L45 at 18x41)</t>
   </si>
   <si>
-    <t>Unknown how set to 1</t>
-  </si>
-  <si>
     <t>Miranda/Nystul</t>
   </si>
   <si>
@@ -2629,18 +2611,6 @@
   </si>
   <si>
     <t>SCD: IF XC1=6 - SET XC1=7</t>
-  </si>
-  <si>
-    <t>Pickup trigger on BlackrockGem (L26 at 28x7) +1</t>
-  </si>
-  <si>
-    <t>Zoranthus - first conv - XC1+=1</t>
-  </si>
-  <si>
-    <t>Pickup trigger on BlackrockGem (L47 at 37x30)</t>
-  </si>
-  <si>
-    <t>On death (Patterson) - I'm assuming?</t>
   </si>
   <si>
     <t>Nystul:  IF Q7=1 &amp; Q14=1 &amp; XC1=14 &amp; XC2&gt;7
@@ -2767,14 +2737,6 @@
 Blackie: tell MorsGotha coming/planning invasion
 Charles: gives key to door (L3 at 27x19) if not given (BGLOBALS check)
 Miranda: tell speak to Charles</t>
-  </si>
-  <si>
-    <t>Altara: teach Enchantment spell
-Blackie: tell MorsGotha coming/planning invasion
-Charles: gives key to door (L3 at 27x19) if not given (BGLOBALS check)
-Miranda: tell speak to Nelson - XC1+=1
-Nelson: Killed by Patterson
-Patterson: Turns hostile - XC1=13</t>
   </si>
   <si>
     <t>Altara: teach Enchantment spell
@@ -2819,18 +2781,10 @@
 Nystul: SET Q143=3 (Ending)</t>
   </si>
   <si>
-    <t>Note:  Castle residents have a stupidly convoluted method for checking this for minor conversation changes so not bothering with them unless important</t>
-  </si>
-  <si>
     <t>SCD:  Set_Variable XC1=7</t>
   </si>
   <si>
     <t>L01:  Fire Hack/Castle Goes Dry trap</t>
-  </si>
-  <si>
-    <t>L01:  Kill_NPC LadyTory
-L01:  Fire Hack/Change TMAP trap / create object trap (adds bloodstains)
-L01:  Fire Hack/Castle Goes Dry trap</t>
   </si>
   <si>
     <t>L01:  Miranda - Move_NPC - CASE V52: 1 - 19x48 / 2 - 31x31 / 3 - 42x32 / 4 - (42x32 &amp; Set_Goal_Target WantToTalk)
@@ -2838,10 +2792,6 @@
   </si>
   <si>
     <t>L01:  Miranda - Move_NPC - CASE V52: 1 - 19x48 / 2 - 31x31 / 3 - 42x32 / 4 - (42x32 &amp; Set_Goal_Target WantToTalk)
-L01:  Fire Hack/Castle Goes Dry trap</t>
-  </si>
-  <si>
-    <t>L01:  Move_NPC Nystul (L01 at 38x42)
 L01:  Fire Hack/Castle Goes Dry trap</t>
   </si>
   <si>
@@ -2900,33 +2850,9 @@
     <t>TraitorDead</t>
   </si>
   <si>
-    <t>LaborAndWaterWoes</t>
-  </si>
-  <si>
-    <t>IceCaverns</t>
-  </si>
-  <si>
-    <t>KillornKeep</t>
-  </si>
-  <si>
-    <t>Death of listener maybe?</t>
-  </si>
-  <si>
-    <t>SpeakToMiranda</t>
-  </si>
-  <si>
     <t>Murder</t>
   </si>
   <si>
-    <t>ScintallusAcademy</t>
-  </si>
-  <si>
-    <t>PitsOfCarnage</t>
-  </si>
-  <si>
-    <t>TombOfPraecorLoth</t>
-  </si>
-  <si>
     <t>PrisonTower</t>
   </si>
   <si>
@@ -2964,6 +2890,79 @@
   </si>
   <si>
     <t>BishopKilled</t>
+  </si>
+  <si>
+    <t>When read</t>
+  </si>
+  <si>
+    <t>BritanniaGoesDry</t>
+  </si>
+  <si>
+    <t>LaborDispute</t>
+  </si>
+  <si>
+    <t>(Pickup trigger on BlackrockGem (L26 at 28x7) || On death (Listener)) +1</t>
+  </si>
+  <si>
+    <t>XC1=13 &amp;&amp; XC3=6</t>
+  </si>
+  <si>
+    <t>On death (Patterson) (think it technically skips to 14 done after Djinn)</t>
+  </si>
+  <si>
+    <t>Invasion</t>
+  </si>
+  <si>
+    <t>L05:  IC/KK available - unsure mechanism</t>
+  </si>
+  <si>
+    <t>L01:  Kill_NPC LadyTory
+L01:  Fire Hack/Change TMAP trap / create object trap (adds bloodstains)
+L01:  Fire Hack/Castle Goes Dry trap
+L05:  PC/SA/TA available - unsure mechanism</t>
+  </si>
+  <si>
+    <t>L01:  Move_NPC Nystul (L01 at 38x42)
+L01:  Fire Hack/Castle Goes Dry trap
+L05:  EV/LT available - unsure mechanism</t>
+  </si>
+  <si>
+    <t>OR Zoranthus - first conv - XC1+=1</t>
+  </si>
+  <si>
+    <t>(Pickup trigger on BlackrockGem (L47 at 37x30) || 4th BlackrockGem used) XC1+=1</t>
+  </si>
+  <si>
+    <t>WaterFound</t>
+  </si>
+  <si>
+    <t>Dupre:  Has key to sewers
+Note:  Castle residents have a stupidly convoluted method for checking this for minor conversation changes so not bothering with them unless important</t>
+  </si>
+  <si>
+    <t>Altara: teach Enchantment spell
+Blackie: tell MorsGotha coming/planning invasion
+Charles: gives key to door (L3 at 27x19) if not given (BGLOBALS check)
+Miranda: tell speak to Nelson - XC1+=1
+Nelson: Killed by Patterson
+Patterson: Turns hostile</t>
+  </si>
+  <si>
+    <t>PitsOfCarnage/ScintallusAcademy/Talorus</t>
+  </si>
+  <si>
+    <t>EtherealVoid/TombOfPraecorLoth</t>
+  </si>
+  <si>
+    <t>IceCaverns/KillornKeep</t>
+  </si>
+  <si>
+    <t>Trapped</t>
+  </si>
+  <si>
+    <t>Blackie: tells you MorsGotha is coming/planning invasion
+Dupre:  volunteers to bring water from IC
+Miranda: XC1+=1</t>
   </si>
 </sst>
 </file>
@@ -3631,25 +3630,25 @@
         <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C1" t="s">
         <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -3657,7 +3656,7 @@
         <v>374</v>
       </c>
       <c r="B2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3666,13 +3665,13 @@
         <v>542</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -3680,7 +3679,7 @@
         <v>375</v>
       </c>
       <c r="B3" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3689,10 +3688,10 @@
         <v>321</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -3700,7 +3699,7 @@
         <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3709,13 +3708,13 @@
         <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -3723,19 +3722,19 @@
         <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3743,19 +3742,19 @@
         <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -3763,7 +3762,7 @@
         <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3772,10 +3771,10 @@
         <v>373</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -3783,7 +3782,7 @@
         <v>380</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3792,10 +3791,10 @@
         <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -3803,7 +3802,7 @@
         <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3812,16 +3811,16 @@
         <v>324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -3829,7 +3828,7 @@
         <v>382</v>
       </c>
       <c r="B10" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3838,10 +3837,10 @@
         <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -3849,7 +3848,7 @@
         <v>383</v>
       </c>
       <c r="B11" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3858,10 +3857,10 @@
         <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -3869,7 +3868,7 @@
         <v>384</v>
       </c>
       <c r="B12" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -3878,10 +3877,10 @@
         <v>327</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -3889,7 +3888,7 @@
         <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -3898,10 +3897,10 @@
         <v>328</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -3909,19 +3908,19 @@
         <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -3929,7 +3928,7 @@
         <v>387</v>
       </c>
       <c r="B15" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -3938,10 +3937,10 @@
         <v>329</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -3949,7 +3948,7 @@
         <v>388</v>
       </c>
       <c r="B16" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -3958,10 +3957,10 @@
         <v>330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -3969,19 +3968,19 @@
         <v>389</v>
       </c>
       <c r="B17" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -3989,7 +3988,7 @@
         <v>390</v>
       </c>
       <c r="B18" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -3998,10 +3997,10 @@
         <v>331</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -4009,7 +4008,7 @@
         <v>391</v>
       </c>
       <c r="B19" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -4020,7 +4019,7 @@
         <v>392</v>
       </c>
       <c r="B20" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -4029,10 +4028,10 @@
         <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -4040,7 +4039,7 @@
         <v>393</v>
       </c>
       <c r="B21" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -4049,10 +4048,10 @@
         <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -4060,7 +4059,7 @@
         <v>394</v>
       </c>
       <c r="B22" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -4069,10 +4068,10 @@
         <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -4080,7 +4079,7 @@
         <v>395</v>
       </c>
       <c r="B23" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -4089,7 +4088,7 @@
         <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>0</v>
@@ -4100,7 +4099,7 @@
         <v>396</v>
       </c>
       <c r="B24" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -4109,10 +4108,10 @@
         <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -4120,22 +4119,22 @@
         <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -4143,7 +4142,7 @@
         <v>398</v>
       </c>
       <c r="B26" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -4152,10 +4151,10 @@
         <v>336</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -4163,7 +4162,7 @@
         <v>399</v>
       </c>
       <c r="B27" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -4172,10 +4171,10 @@
         <v>337</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -4183,7 +4182,7 @@
         <v>400</v>
       </c>
       <c r="B28" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -4192,10 +4191,10 @@
         <v>541</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -4203,7 +4202,7 @@
         <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -4212,10 +4211,10 @@
         <v>338</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -4223,7 +4222,7 @@
         <v>402</v>
       </c>
       <c r="B30" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -4232,10 +4231,10 @@
         <v>339</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -4243,7 +4242,7 @@
         <v>403</v>
       </c>
       <c r="B31" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -4252,10 +4251,10 @@
         <v>540</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -4263,7 +4262,7 @@
         <v>404</v>
       </c>
       <c r="B32" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -4272,10 +4271,10 @@
         <v>341</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -4283,7 +4282,7 @@
         <v>405</v>
       </c>
       <c r="B33" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -4294,7 +4293,7 @@
         <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -4303,10 +4302,10 @@
         <v>342</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -4314,7 +4313,7 @@
         <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -4323,10 +4322,10 @@
         <v>343</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -4334,7 +4333,7 @@
         <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -4343,10 +4342,10 @@
         <v>344</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -4354,7 +4353,7 @@
         <v>409</v>
       </c>
       <c r="B37" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C37">
         <v>35</v>
@@ -4363,13 +4362,13 @@
         <v>345</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -4377,7 +4376,7 @@
         <v>410</v>
       </c>
       <c r="B38" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C38">
         <v>36</v>
@@ -4386,10 +4385,10 @@
         <v>346</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -4397,7 +4396,7 @@
         <v>411</v>
       </c>
       <c r="B39" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C39">
         <v>37</v>
@@ -4406,10 +4405,10 @@
         <v>347</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -4417,7 +4416,7 @@
         <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C40">
         <v>38</v>
@@ -4426,10 +4425,10 @@
         <v>348</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -4437,7 +4436,7 @@
         <v>413</v>
       </c>
       <c r="B41" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C41">
         <v>39</v>
@@ -4446,10 +4445,10 @@
         <v>349</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -4457,7 +4456,7 @@
         <v>414</v>
       </c>
       <c r="B42" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C42">
         <v>40</v>
@@ -4466,10 +4465,10 @@
         <v>350</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -4477,7 +4476,7 @@
         <v>415</v>
       </c>
       <c r="B43" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C43">
         <v>41</v>
@@ -4488,7 +4487,7 @@
         <v>416</v>
       </c>
       <c r="B44" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C44">
         <v>42</v>
@@ -4499,7 +4498,7 @@
         <v>417</v>
       </c>
       <c r="B45" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C45">
         <v>43</v>
@@ -4508,13 +4507,13 @@
         <v>292</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -4522,22 +4521,22 @@
         <v>418</v>
       </c>
       <c r="B46" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C46">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -4545,7 +4544,7 @@
         <v>419</v>
       </c>
       <c r="B47" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C47">
         <v>45</v>
@@ -4554,10 +4553,10 @@
         <v>351</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -4565,7 +4564,7 @@
         <v>420</v>
       </c>
       <c r="B48" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C48">
         <v>46</v>
@@ -4574,10 +4573,10 @@
         <v>293</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -4585,7 +4584,7 @@
         <v>421</v>
       </c>
       <c r="B49" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C49">
         <v>47</v>
@@ -4594,10 +4593,10 @@
         <v>352</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -4605,7 +4604,7 @@
         <v>422</v>
       </c>
       <c r="B50" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C50">
         <v>48</v>
@@ -4614,10 +4613,10 @@
         <v>353</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -4625,7 +4624,7 @@
         <v>423</v>
       </c>
       <c r="B51" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C51">
         <v>49</v>
@@ -4634,10 +4633,10 @@
         <v>354</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -4645,16 +4644,16 @@
         <v>424</v>
       </c>
       <c r="B52" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C52">
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>294</v>
@@ -4665,7 +4664,7 @@
         <v>425</v>
       </c>
       <c r="B53" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C53">
         <v>51</v>
@@ -4674,10 +4673,10 @@
         <v>355</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -4685,7 +4684,7 @@
         <v>426</v>
       </c>
       <c r="B54" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C54">
         <v>52</v>
@@ -4697,7 +4696,7 @@
         <v>319</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -4705,19 +4704,19 @@
         <v>427</v>
       </c>
       <c r="B55" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C55">
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -4725,7 +4724,7 @@
         <v>428</v>
       </c>
       <c r="B56" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C56">
         <v>54</v>
@@ -4734,13 +4733,13 @@
         <v>295</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -4748,7 +4747,7 @@
         <v>429</v>
       </c>
       <c r="B57" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C57">
         <v>55</v>
@@ -4757,10 +4756,10 @@
         <v>296</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -4768,7 +4767,7 @@
         <v>430</v>
       </c>
       <c r="B58" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C58">
         <v>56</v>
@@ -4777,7 +4776,7 @@
         <v>357</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>0</v>
@@ -4788,7 +4787,7 @@
         <v>431</v>
       </c>
       <c r="B59" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C59">
         <v>57</v>
@@ -4797,10 +4796,10 @@
         <v>297</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -4808,7 +4807,7 @@
         <v>432</v>
       </c>
       <c r="B60" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C60">
         <v>58</v>
@@ -4817,10 +4816,10 @@
         <v>358</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -4828,7 +4827,7 @@
         <v>433</v>
       </c>
       <c r="B61" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C61">
         <v>59</v>
@@ -4837,10 +4836,10 @@
         <v>298</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -4848,7 +4847,7 @@
         <v>434</v>
       </c>
       <c r="B62" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -4857,10 +4856,10 @@
         <v>359</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -4868,7 +4867,7 @@
         <v>435</v>
       </c>
       <c r="B63" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C63">
         <v>61</v>
@@ -4877,10 +4876,10 @@
         <v>360</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -4888,7 +4887,7 @@
         <v>436</v>
       </c>
       <c r="B64" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C64">
         <v>62</v>
@@ -4897,13 +4896,13 @@
         <v>361</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -4911,7 +4910,7 @@
         <v>437</v>
       </c>
       <c r="B65" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C65">
         <v>63</v>
@@ -4920,10 +4919,10 @@
         <v>362</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -4931,7 +4930,7 @@
         <v>438</v>
       </c>
       <c r="B66" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C66">
         <v>64</v>
@@ -4940,13 +4939,13 @@
         <v>299</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -4954,22 +4953,22 @@
         <v>439</v>
       </c>
       <c r="B67" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C67">
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -4977,19 +4976,19 @@
         <v>440</v>
       </c>
       <c r="B68" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C68">
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -4997,7 +4996,7 @@
         <v>441</v>
       </c>
       <c r="B69" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C69">
         <v>67</v>
@@ -5006,10 +5005,10 @@
         <v>300</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -5017,7 +5016,7 @@
         <v>442</v>
       </c>
       <c r="B70" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C70">
         <v>68</v>
@@ -5026,10 +5025,10 @@
         <v>364</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -5037,7 +5036,7 @@
         <v>443</v>
       </c>
       <c r="B71" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C71">
         <v>69</v>
@@ -5046,10 +5045,10 @@
         <v>363</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -5057,7 +5056,7 @@
         <v>444</v>
       </c>
       <c r="B72" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C72">
         <v>70</v>
@@ -5068,7 +5067,7 @@
         <v>445</v>
       </c>
       <c r="B73" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C73">
         <v>71</v>
@@ -5079,7 +5078,7 @@
         <v>446</v>
       </c>
       <c r="B74" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C74">
         <v>72</v>
@@ -5090,7 +5089,7 @@
         <v>447</v>
       </c>
       <c r="B75" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C75">
         <v>73</v>
@@ -5101,7 +5100,7 @@
         <v>448</v>
       </c>
       <c r="B76" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C76">
         <v>74</v>
@@ -5112,7 +5111,7 @@
         <v>449</v>
       </c>
       <c r="B77" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C77">
         <v>75</v>
@@ -5123,7 +5122,7 @@
         <v>450</v>
       </c>
       <c r="B78" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C78">
         <v>76</v>
@@ -5134,7 +5133,7 @@
         <v>451</v>
       </c>
       <c r="B79" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C79">
         <v>77</v>
@@ -5145,7 +5144,7 @@
         <v>452</v>
       </c>
       <c r="B80" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C80">
         <v>78</v>
@@ -5156,7 +5155,7 @@
         <v>453</v>
       </c>
       <c r="B81" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C81">
         <v>79</v>
@@ -5167,7 +5166,7 @@
         <v>454</v>
       </c>
       <c r="B82" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C82">
         <v>80</v>
@@ -5178,7 +5177,7 @@
         <v>455</v>
       </c>
       <c r="B83" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C83">
         <v>81</v>
@@ -5189,7 +5188,7 @@
         <v>456</v>
       </c>
       <c r="B84" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C84">
         <v>82</v>
@@ -5200,7 +5199,7 @@
         <v>457</v>
       </c>
       <c r="B85" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C85">
         <v>83</v>
@@ -5211,7 +5210,7 @@
         <v>458</v>
       </c>
       <c r="B86" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C86">
         <v>84</v>
@@ -5222,7 +5221,7 @@
         <v>459</v>
       </c>
       <c r="B87" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C87">
         <v>85</v>
@@ -5233,7 +5232,7 @@
         <v>460</v>
       </c>
       <c r="B88" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C88">
         <v>86</v>
@@ -5244,7 +5243,7 @@
         <v>461</v>
       </c>
       <c r="B89" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C89">
         <v>87</v>
@@ -5255,7 +5254,7 @@
         <v>462</v>
       </c>
       <c r="B90" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C90">
         <v>88</v>
@@ -5266,7 +5265,7 @@
         <v>463</v>
       </c>
       <c r="B91" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C91">
         <v>89</v>
@@ -5277,7 +5276,7 @@
         <v>464</v>
       </c>
       <c r="B92" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C92">
         <v>90</v>
@@ -5288,7 +5287,7 @@
         <v>465</v>
       </c>
       <c r="B93" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C93">
         <v>91</v>
@@ -5299,7 +5298,7 @@
         <v>466</v>
       </c>
       <c r="B94" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C94">
         <v>92</v>
@@ -5310,7 +5309,7 @@
         <v>467</v>
       </c>
       <c r="B95" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C95">
         <v>93</v>
@@ -5321,7 +5320,7 @@
         <v>468</v>
       </c>
       <c r="B96" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C96">
         <v>94</v>
@@ -5332,7 +5331,7 @@
         <v>469</v>
       </c>
       <c r="B97" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C97">
         <v>95</v>
@@ -5343,7 +5342,7 @@
         <v>470</v>
       </c>
       <c r="B98" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C98">
         <v>96</v>
@@ -5354,7 +5353,7 @@
         <v>471</v>
       </c>
       <c r="B99" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C99">
         <v>97</v>
@@ -5365,7 +5364,7 @@
         <v>472</v>
       </c>
       <c r="B100" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C100">
         <v>98</v>
@@ -5376,7 +5375,7 @@
         <v>473</v>
       </c>
       <c r="B101" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C101">
         <v>99</v>
@@ -5387,7 +5386,7 @@
         <v>474</v>
       </c>
       <c r="B102" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C102">
         <v>100</v>
@@ -5398,7 +5397,7 @@
         <v>475</v>
       </c>
       <c r="B103" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C103">
         <v>101</v>
@@ -5409,7 +5408,7 @@
         <v>476</v>
       </c>
       <c r="B104" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C104">
         <v>102</v>
@@ -5420,7 +5419,7 @@
         <v>477</v>
       </c>
       <c r="B105" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C105">
         <v>103</v>
@@ -5431,7 +5430,7 @@
         <v>478</v>
       </c>
       <c r="B106" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C106">
         <v>104</v>
@@ -5440,10 +5439,10 @@
         <v>365</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -5451,7 +5450,7 @@
         <v>479</v>
       </c>
       <c r="B107" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C107">
         <v>105</v>
@@ -5463,7 +5462,7 @@
         <v>302</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -5471,7 +5470,7 @@
         <v>480</v>
       </c>
       <c r="B108" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C108">
         <v>106</v>
@@ -5480,13 +5479,13 @@
         <v>366</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>761</v>
+        <v>933</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
@@ -5494,7 +5493,7 @@
         <v>481</v>
       </c>
       <c r="B109" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C109">
         <v>107</v>
@@ -5503,13 +5502,13 @@
         <v>367</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -5517,7 +5516,7 @@
         <v>482</v>
       </c>
       <c r="B110" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C110">
         <v>108</v>
@@ -5531,7 +5530,7 @@
         <v>483</v>
       </c>
       <c r="B111" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C111">
         <v>109</v>
@@ -5540,13 +5539,13 @@
         <v>303</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -5554,7 +5553,7 @@
         <v>484</v>
       </c>
       <c r="B112" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C112">
         <v>110</v>
@@ -5563,10 +5562,10 @@
         <v>368</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -5574,7 +5573,7 @@
         <v>485</v>
       </c>
       <c r="B113" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C113">
         <v>111</v>
@@ -5583,10 +5582,10 @@
         <v>304</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -5594,7 +5593,7 @@
         <v>486</v>
       </c>
       <c r="B114" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C114">
         <v>112</v>
@@ -5603,16 +5602,16 @@
         <v>305</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
@@ -5620,7 +5619,7 @@
         <v>487</v>
       </c>
       <c r="B115" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C115">
         <v>113</v>
@@ -5629,10 +5628,10 @@
         <v>306</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
@@ -5640,7 +5639,7 @@
         <v>488</v>
       </c>
       <c r="B116" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C116">
         <v>114</v>
@@ -5649,10 +5648,10 @@
         <v>537</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -5660,7 +5659,7 @@
         <v>489</v>
       </c>
       <c r="B117" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C117">
         <v>115</v>
@@ -5669,10 +5668,10 @@
         <v>538</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -5680,7 +5679,7 @@
         <v>490</v>
       </c>
       <c r="B118" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C118">
         <v>116</v>
@@ -5689,10 +5688,10 @@
         <v>369</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -5700,7 +5699,7 @@
         <v>491</v>
       </c>
       <c r="B119" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C119">
         <v>117</v>
@@ -5709,16 +5708,16 @@
         <v>307</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
@@ -5726,7 +5725,7 @@
         <v>492</v>
       </c>
       <c r="B120" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C120">
         <v>118</v>
@@ -5735,10 +5734,10 @@
         <v>370</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
@@ -5746,7 +5745,7 @@
         <v>493</v>
       </c>
       <c r="B121" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C121">
         <v>119</v>
@@ -5755,10 +5754,10 @@
         <v>308</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -5766,7 +5765,7 @@
         <v>494</v>
       </c>
       <c r="B122" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C122">
         <v>120</v>
@@ -5775,10 +5774,10 @@
         <v>539</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -5786,7 +5785,7 @@
         <v>495</v>
       </c>
       <c r="B123" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C123">
         <v>121</v>
@@ -5795,16 +5794,16 @@
         <v>309</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -5812,7 +5811,7 @@
         <v>496</v>
       </c>
       <c r="B124" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C124">
         <v>122</v>
@@ -5821,7 +5820,7 @@
         <v>317</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -5829,7 +5828,7 @@
         <v>497</v>
       </c>
       <c r="B125" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C125">
         <v>123</v>
@@ -5838,10 +5837,10 @@
         <v>310</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
@@ -5849,7 +5848,7 @@
         <v>498</v>
       </c>
       <c r="B126" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C126">
         <v>124</v>
@@ -5860,7 +5859,7 @@
         <v>499</v>
       </c>
       <c r="B127" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C127">
         <v>125</v>
@@ -5869,10 +5868,10 @@
         <v>311</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
@@ -5880,7 +5879,7 @@
         <v>500</v>
       </c>
       <c r="B128" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C128">
         <v>126</v>
@@ -5891,7 +5890,7 @@
         <v>501</v>
       </c>
       <c r="B129" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C129">
         <v>127</v>
@@ -5902,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C130">
         <v>128</v>
@@ -5911,10 +5910,10 @@
         <v>312</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -5922,7 +5921,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C131">
         <v>129</v>
@@ -5934,7 +5933,7 @@
         <v>313</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
@@ -5942,16 +5941,16 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C132">
         <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
@@ -5959,7 +5958,7 @@
         <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C133">
         <v>131</v>
@@ -5979,7 +5978,7 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C134">
         <v>132</v>
@@ -5990,16 +5989,16 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C135">
         <v>133</v>
       </c>
       <c r="D135" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -6007,7 +6006,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C136">
         <v>134</v>
@@ -6016,10 +6015,10 @@
         <v>316</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
@@ -6027,7 +6026,7 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C137">
         <v>135</v>
@@ -6036,10 +6035,10 @@
         <v>318</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
@@ -6047,7 +6046,7 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C138">
         <v>136</v>
@@ -6058,7 +6057,7 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C139">
         <v>137</v>
@@ -6069,7 +6068,7 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C140">
         <v>138</v>
@@ -6080,7 +6079,7 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C141">
         <v>139</v>
@@ -6091,7 +6090,7 @@
         <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C142">
         <v>140</v>
@@ -6102,7 +6101,7 @@
         <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C143">
         <v>141</v>
@@ -6113,7 +6112,7 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C144">
         <v>142</v>
@@ -6124,7 +6123,7 @@
         <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C145">
         <v>143</v>
@@ -6133,7 +6132,7 @@
         <v>372</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -6141,7 +6140,7 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -6152,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -6161,10 +6160,10 @@
         <v>320</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -6172,7 +6171,7 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -6181,10 +6180,10 @@
         <v>502</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -6192,7 +6191,7 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -6203,7 +6202,7 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -6214,7 +6213,7 @@
         <v>22</v>
       </c>
       <c r="B151" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -6225,7 +6224,7 @@
         <v>23</v>
       </c>
       <c r="B152" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C152">
         <v>6</v>
@@ -6234,7 +6233,7 @@
         <v>503</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>504</v>
@@ -6245,7 +6244,7 @@
         <v>24</v>
       </c>
       <c r="B153" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C153">
         <v>7</v>
@@ -6256,7 +6255,7 @@
         <v>25</v>
       </c>
       <c r="B154" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C154">
         <v>8</v>
@@ -6267,7 +6266,7 @@
         <v>26</v>
       </c>
       <c r="B155" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C155">
         <v>9</v>
@@ -6278,7 +6277,7 @@
         <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C156">
         <v>10</v>
@@ -6289,7 +6288,7 @@
         <v>28</v>
       </c>
       <c r="B157" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C157">
         <v>11</v>
@@ -6300,7 +6299,7 @@
         <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C158">
         <v>12</v>
@@ -6309,10 +6308,10 @@
         <v>505</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -6320,7 +6319,7 @@
         <v>30</v>
       </c>
       <c r="B159" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C159">
         <v>13</v>
@@ -6331,7 +6330,7 @@
         <v>31</v>
       </c>
       <c r="B160" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C160">
         <v>14</v>
@@ -6342,7 +6341,7 @@
         <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C161">
         <v>15</v>
@@ -6353,7 +6352,7 @@
         <v>33</v>
       </c>
       <c r="B162" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C162">
         <v>16</v>
@@ -6364,7 +6363,7 @@
         <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C163">
         <v>17</v>
@@ -6375,7 +6374,7 @@
         <v>35</v>
       </c>
       <c r="B164" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C164">
         <v>18</v>
@@ -6386,7 +6385,7 @@
         <v>36</v>
       </c>
       <c r="B165" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C165">
         <v>19</v>
@@ -6397,7 +6396,7 @@
         <v>37</v>
       </c>
       <c r="B166" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C166">
         <v>20</v>
@@ -6408,7 +6407,7 @@
         <v>38</v>
       </c>
       <c r="B167" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C167">
         <v>21</v>
@@ -6419,7 +6418,7 @@
         <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C168">
         <v>22</v>
@@ -6430,7 +6429,7 @@
         <v>40</v>
       </c>
       <c r="B169" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C169">
         <v>23</v>
@@ -6441,7 +6440,7 @@
         <v>41</v>
       </c>
       <c r="B170" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C170">
         <v>24</v>
@@ -6452,7 +6451,7 @@
         <v>42</v>
       </c>
       <c r="B171" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C171">
         <v>25</v>
@@ -6463,7 +6462,7 @@
         <v>43</v>
       </c>
       <c r="B172" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C172">
         <v>26</v>
@@ -6474,7 +6473,7 @@
         <v>44</v>
       </c>
       <c r="B173" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C173">
         <v>27</v>
@@ -6485,7 +6484,7 @@
         <v>45</v>
       </c>
       <c r="B174" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C174">
         <v>28</v>
@@ -6496,7 +6495,7 @@
         <v>46</v>
       </c>
       <c r="B175" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C175">
         <v>29</v>
@@ -6507,7 +6506,7 @@
         <v>47</v>
       </c>
       <c r="B176" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C176">
         <v>30</v>
@@ -6518,7 +6517,7 @@
         <v>48</v>
       </c>
       <c r="B177" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C177">
         <v>31</v>
@@ -6527,10 +6526,10 @@
         <v>524</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -6538,7 +6537,7 @@
         <v>49</v>
       </c>
       <c r="B178" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C178">
         <v>32</v>
@@ -6547,10 +6546,10 @@
         <v>522</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -6558,7 +6557,7 @@
         <v>50</v>
       </c>
       <c r="B179" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C179">
         <v>33</v>
@@ -6567,10 +6566,10 @@
         <v>523</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -6578,7 +6577,7 @@
         <v>51</v>
       </c>
       <c r="B180" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C180">
         <v>34</v>
@@ -6589,7 +6588,7 @@
         <v>52</v>
       </c>
       <c r="B181" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C181">
         <v>35</v>
@@ -6600,7 +6599,7 @@
         <v>53</v>
       </c>
       <c r="B182" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C182">
         <v>36</v>
@@ -6611,7 +6610,7 @@
         <v>54</v>
       </c>
       <c r="B183" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C183">
         <v>37</v>
@@ -6622,7 +6621,7 @@
         <v>55</v>
       </c>
       <c r="B184" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C184">
         <v>38</v>
@@ -6633,7 +6632,7 @@
         <v>56</v>
       </c>
       <c r="B185" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C185">
         <v>39</v>
@@ -6644,7 +6643,7 @@
         <v>57</v>
       </c>
       <c r="B186" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C186">
         <v>40</v>
@@ -6653,10 +6652,10 @@
         <v>506</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -6664,7 +6663,7 @@
         <v>58</v>
       </c>
       <c r="B187" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C187">
         <v>41</v>
@@ -6675,7 +6674,7 @@
         <v>59</v>
       </c>
       <c r="B188" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C188">
         <v>42</v>
@@ -6684,10 +6683,10 @@
         <v>507</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -6695,7 +6694,7 @@
         <v>60</v>
       </c>
       <c r="B189" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C189">
         <v>43</v>
@@ -6704,10 +6703,10 @@
         <v>508</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -6715,7 +6714,7 @@
         <v>61</v>
       </c>
       <c r="B190" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C190">
         <v>44</v>
@@ -6726,7 +6725,7 @@
         <v>62</v>
       </c>
       <c r="B191" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C191">
         <v>45</v>
@@ -6737,7 +6736,7 @@
         <v>63</v>
       </c>
       <c r="B192" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C192">
         <v>46</v>
@@ -6748,7 +6747,7 @@
         <v>64</v>
       </c>
       <c r="B193" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C193">
         <v>47</v>
@@ -6759,7 +6758,7 @@
         <v>65</v>
       </c>
       <c r="B194" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C194">
         <v>48</v>
@@ -6770,7 +6769,7 @@
         <v>66</v>
       </c>
       <c r="B195" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C195">
         <v>49</v>
@@ -6781,7 +6780,7 @@
         <v>67</v>
       </c>
       <c r="B196" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C196">
         <v>50</v>
@@ -6790,10 +6789,10 @@
         <v>509</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
@@ -6801,7 +6800,7 @@
         <v>68</v>
       </c>
       <c r="B197" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C197">
         <v>51</v>
@@ -6810,10 +6809,10 @@
         <v>510</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
@@ -6821,7 +6820,7 @@
         <v>69</v>
       </c>
       <c r="B198" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C198">
         <v>52</v>
@@ -6830,13 +6829,13 @@
         <v>511</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
@@ -6844,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="B199" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C199">
         <v>53</v>
@@ -6855,7 +6854,7 @@
         <v>71</v>
       </c>
       <c r="B200" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C200">
         <v>54</v>
@@ -6866,7 +6865,7 @@
         <v>72</v>
       </c>
       <c r="B201" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C201">
         <v>55</v>
@@ -6877,7 +6876,7 @@
         <v>73</v>
       </c>
       <c r="B202" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C202">
         <v>56</v>
@@ -6888,7 +6887,7 @@
         <v>74</v>
       </c>
       <c r="B203" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C203">
         <v>57</v>
@@ -6899,7 +6898,7 @@
         <v>75</v>
       </c>
       <c r="B204" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C204">
         <v>58</v>
@@ -6910,7 +6909,7 @@
         <v>76</v>
       </c>
       <c r="B205" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C205">
         <v>59</v>
@@ -6921,7 +6920,7 @@
         <v>77</v>
       </c>
       <c r="B206" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C206">
         <v>60</v>
@@ -6932,7 +6931,7 @@
         <v>78</v>
       </c>
       <c r="B207" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C207">
         <v>61</v>
@@ -6943,7 +6942,7 @@
         <v>79</v>
       </c>
       <c r="B208" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C208">
         <v>62</v>
@@ -6954,7 +6953,7 @@
         <v>80</v>
       </c>
       <c r="B209" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C209">
         <v>63</v>
@@ -6965,7 +6964,7 @@
         <v>81</v>
       </c>
       <c r="B210" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C210">
         <v>64</v>
@@ -6976,7 +6975,7 @@
         <v>82</v>
       </c>
       <c r="B211" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C211">
         <v>65</v>
@@ -6987,7 +6986,7 @@
         <v>83</v>
       </c>
       <c r="B212" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C212">
         <v>66</v>
@@ -6998,7 +6997,7 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C213">
         <v>67</v>
@@ -7009,7 +7008,7 @@
         <v>85</v>
       </c>
       <c r="B214" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C214">
         <v>68</v>
@@ -7020,7 +7019,7 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C215">
         <v>69</v>
@@ -7031,7 +7030,7 @@
         <v>87</v>
       </c>
       <c r="B216" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C216">
         <v>70</v>
@@ -7042,7 +7041,7 @@
         <v>88</v>
       </c>
       <c r="B217" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C217">
         <v>71</v>
@@ -7053,7 +7052,7 @@
         <v>89</v>
       </c>
       <c r="B218" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C218">
         <v>72</v>
@@ -7064,7 +7063,7 @@
         <v>90</v>
       </c>
       <c r="B219" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C219">
         <v>73</v>
@@ -7075,7 +7074,7 @@
         <v>91</v>
       </c>
       <c r="B220" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C220">
         <v>74</v>
@@ -7086,7 +7085,7 @@
         <v>92</v>
       </c>
       <c r="B221" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C221">
         <v>75</v>
@@ -7097,7 +7096,7 @@
         <v>93</v>
       </c>
       <c r="B222" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C222">
         <v>76</v>
@@ -7108,7 +7107,7 @@
         <v>94</v>
       </c>
       <c r="B223" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C223">
         <v>77</v>
@@ -7119,7 +7118,7 @@
         <v>95</v>
       </c>
       <c r="B224" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C224">
         <v>78</v>
@@ -7130,7 +7129,7 @@
         <v>96</v>
       </c>
       <c r="B225" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C225">
         <v>79</v>
@@ -7141,7 +7140,7 @@
         <v>97</v>
       </c>
       <c r="B226" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C226">
         <v>80</v>
@@ -7152,7 +7151,7 @@
         <v>98</v>
       </c>
       <c r="B227" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C227">
         <v>81</v>
@@ -7163,7 +7162,7 @@
         <v>99</v>
       </c>
       <c r="B228" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C228">
         <v>82</v>
@@ -7174,7 +7173,7 @@
         <v>100</v>
       </c>
       <c r="B229" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C229">
         <v>83</v>
@@ -7185,7 +7184,7 @@
         <v>101</v>
       </c>
       <c r="B230" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C230">
         <v>84</v>
@@ -7196,7 +7195,7 @@
         <v>102</v>
       </c>
       <c r="B231" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C231">
         <v>85</v>
@@ -7207,7 +7206,7 @@
         <v>103</v>
       </c>
       <c r="B232" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C232">
         <v>86</v>
@@ -7218,7 +7217,7 @@
         <v>104</v>
       </c>
       <c r="B233" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C233">
         <v>87</v>
@@ -7229,7 +7228,7 @@
         <v>105</v>
       </c>
       <c r="B234" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C234">
         <v>88</v>
@@ -7240,7 +7239,7 @@
         <v>106</v>
       </c>
       <c r="B235" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C235">
         <v>89</v>
@@ -7251,7 +7250,7 @@
         <v>107</v>
       </c>
       <c r="B236" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C236">
         <v>90</v>
@@ -7260,10 +7259,10 @@
         <v>512</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -7271,7 +7270,7 @@
         <v>108</v>
       </c>
       <c r="B237" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C237">
         <v>91</v>
@@ -7282,7 +7281,7 @@
         <v>109</v>
       </c>
       <c r="B238" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C238">
         <v>92</v>
@@ -7293,7 +7292,7 @@
         <v>110</v>
       </c>
       <c r="B239" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C239">
         <v>93</v>
@@ -7304,7 +7303,7 @@
         <v>111</v>
       </c>
       <c r="B240" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C240">
         <v>94</v>
@@ -7315,7 +7314,7 @@
         <v>112</v>
       </c>
       <c r="B241" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C241">
         <v>95</v>
@@ -7326,7 +7325,7 @@
         <v>113</v>
       </c>
       <c r="B242" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C242">
         <v>96</v>
@@ -7337,7 +7336,7 @@
         <v>114</v>
       </c>
       <c r="B243" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C243">
         <v>97</v>
@@ -7348,7 +7347,7 @@
         <v>115</v>
       </c>
       <c r="B244" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C244">
         <v>98</v>
@@ -7359,7 +7358,7 @@
         <v>116</v>
       </c>
       <c r="B245" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C245">
         <v>99</v>
@@ -7370,7 +7369,7 @@
         <v>117</v>
       </c>
       <c r="B246" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C246">
         <v>100</v>
@@ -7379,7 +7378,7 @@
         <v>513</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
@@ -7387,7 +7386,7 @@
         <v>118</v>
       </c>
       <c r="B247" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C247">
         <v>101</v>
@@ -7401,7 +7400,7 @@
         <v>119</v>
       </c>
       <c r="B248" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C248">
         <v>102</v>
@@ -7415,7 +7414,7 @@
         <v>120</v>
       </c>
       <c r="B249" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C249">
         <v>103</v>
@@ -7429,7 +7428,7 @@
         <v>121</v>
       </c>
       <c r="B250" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C250">
         <v>104</v>
@@ -7443,7 +7442,7 @@
         <v>122</v>
       </c>
       <c r="B251" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C251">
         <v>105</v>
@@ -7457,7 +7456,7 @@
         <v>123</v>
       </c>
       <c r="B252" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C252">
         <v>106</v>
@@ -7471,7 +7470,7 @@
         <v>124</v>
       </c>
       <c r="B253" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C253">
         <v>107</v>
@@ -7485,7 +7484,7 @@
         <v>125</v>
       </c>
       <c r="B254" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C254">
         <v>108</v>
@@ -7499,7 +7498,7 @@
         <v>126</v>
       </c>
       <c r="B255" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C255">
         <v>109</v>
@@ -7510,7 +7509,7 @@
         <v>127</v>
       </c>
       <c r="B256" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C256">
         <v>110</v>
@@ -7521,7 +7520,7 @@
         <v>128</v>
       </c>
       <c r="B257" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C257">
         <v>111</v>
@@ -7532,7 +7531,7 @@
         <v>129</v>
       </c>
       <c r="B258" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C258">
         <v>112</v>
@@ -7543,7 +7542,7 @@
         <v>130</v>
       </c>
       <c r="B259" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C259">
         <v>113</v>
@@ -7554,7 +7553,7 @@
         <v>131</v>
       </c>
       <c r="B260" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C260">
         <v>114</v>
@@ -7565,7 +7564,7 @@
         <v>132</v>
       </c>
       <c r="B261" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C261">
         <v>115</v>
@@ -7576,7 +7575,7 @@
         <v>133</v>
       </c>
       <c r="B262" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C262">
         <v>116</v>
@@ -7587,7 +7586,7 @@
         <v>134</v>
       </c>
       <c r="B263" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C263">
         <v>117</v>
@@ -7598,7 +7597,7 @@
         <v>135</v>
       </c>
       <c r="B264" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C264">
         <v>118</v>
@@ -7609,7 +7608,7 @@
         <v>136</v>
       </c>
       <c r="B265" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C265">
         <v>119</v>
@@ -7620,7 +7619,7 @@
         <v>137</v>
       </c>
       <c r="B266" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C266">
         <v>120</v>
@@ -7631,7 +7630,7 @@
         <v>138</v>
       </c>
       <c r="B267" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C267">
         <v>121</v>
@@ -7642,7 +7641,7 @@
         <v>139</v>
       </c>
       <c r="B268" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C268">
         <v>122</v>
@@ -7653,7 +7652,7 @@
         <v>140</v>
       </c>
       <c r="B269" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C269">
         <v>123</v>
@@ -7664,7 +7663,7 @@
         <v>141</v>
       </c>
       <c r="B270" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C270">
         <v>124</v>
@@ -7675,7 +7674,7 @@
         <v>142</v>
       </c>
       <c r="B271" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C271">
         <v>125</v>
@@ -7686,7 +7685,7 @@
         <v>143</v>
       </c>
       <c r="B272" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C272">
         <v>126</v>
@@ -7697,7 +7696,7 @@
         <v>144</v>
       </c>
       <c r="B273" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C273">
         <v>127</v>
@@ -7708,7 +7707,7 @@
         <v>145</v>
       </c>
       <c r="B274" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -7719,7 +7718,7 @@
         <v>146</v>
       </c>
       <c r="B275" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -7730,7 +7729,7 @@
         <v>147</v>
       </c>
       <c r="B276" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C276">
         <v>2</v>
@@ -7741,7 +7740,7 @@
         <v>148</v>
       </c>
       <c r="B277" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C277">
         <v>3</v>
@@ -7752,7 +7751,7 @@
         <v>149</v>
       </c>
       <c r="B278" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C278">
         <v>4</v>
@@ -7763,7 +7762,7 @@
         <v>150</v>
       </c>
       <c r="B279" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C279">
         <v>5</v>
@@ -7774,7 +7773,7 @@
         <v>151</v>
       </c>
       <c r="B280" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C280">
         <v>6</v>
@@ -7785,7 +7784,7 @@
         <v>152</v>
       </c>
       <c r="B281" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C281">
         <v>7</v>
@@ -7796,7 +7795,7 @@
         <v>153</v>
       </c>
       <c r="B282" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C282">
         <v>8</v>
@@ -7807,7 +7806,7 @@
         <v>154</v>
       </c>
       <c r="B283" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C283">
         <v>9</v>
@@ -7818,7 +7817,7 @@
         <v>155</v>
       </c>
       <c r="B284" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C284">
         <v>10</v>
@@ -7829,7 +7828,7 @@
         <v>156</v>
       </c>
       <c r="B285" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C285">
         <v>11</v>
@@ -7840,7 +7839,7 @@
         <v>157</v>
       </c>
       <c r="B286" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C286">
         <v>12</v>
@@ -7851,7 +7850,7 @@
         <v>158</v>
       </c>
       <c r="B287" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C287">
         <v>13</v>
@@ -7862,7 +7861,7 @@
         <v>159</v>
       </c>
       <c r="B288" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C288">
         <v>14</v>
@@ -7873,7 +7872,7 @@
         <v>160</v>
       </c>
       <c r="B289" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C289">
         <v>15</v>
@@ -7884,7 +7883,7 @@
         <v>161</v>
       </c>
       <c r="B290" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C290">
         <v>16</v>
@@ -7895,7 +7894,7 @@
         <v>162</v>
       </c>
       <c r="B291" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C291">
         <v>17</v>
@@ -7904,7 +7903,7 @@
         <v>534</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
@@ -7912,7 +7911,7 @@
         <v>163</v>
       </c>
       <c r="B292" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C292">
         <v>18</v>
@@ -7923,7 +7922,7 @@
         <v>164</v>
       </c>
       <c r="B293" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C293">
         <v>19</v>
@@ -7934,7 +7933,7 @@
         <v>165</v>
       </c>
       <c r="B294" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C294">
         <v>20</v>
@@ -7945,7 +7944,7 @@
         <v>166</v>
       </c>
       <c r="B295" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C295">
         <v>21</v>
@@ -7956,7 +7955,7 @@
         <v>167</v>
       </c>
       <c r="B296" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C296">
         <v>22</v>
@@ -7967,7 +7966,7 @@
         <v>168</v>
       </c>
       <c r="B297" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C297">
         <v>23</v>
@@ -7978,7 +7977,7 @@
         <v>169</v>
       </c>
       <c r="B298" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C298">
         <v>24</v>
@@ -7989,7 +7988,7 @@
         <v>170</v>
       </c>
       <c r="B299" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C299">
         <v>25</v>
@@ -8000,7 +7999,7 @@
         <v>171</v>
       </c>
       <c r="B300" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C300">
         <v>26</v>
@@ -8011,7 +8010,7 @@
         <v>172</v>
       </c>
       <c r="B301" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C301">
         <v>27</v>
@@ -8022,7 +8021,7 @@
         <v>173</v>
       </c>
       <c r="B302" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C302">
         <v>28</v>
@@ -8033,7 +8032,7 @@
         <v>174</v>
       </c>
       <c r="B303" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C303">
         <v>29</v>
@@ -8044,7 +8043,7 @@
         <v>175</v>
       </c>
       <c r="B304" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C304">
         <v>30</v>
@@ -8055,7 +8054,7 @@
         <v>176</v>
       </c>
       <c r="B305" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C305">
         <v>31</v>
@@ -8066,7 +8065,7 @@
         <v>177</v>
       </c>
       <c r="B306" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C306">
         <v>32</v>
@@ -8075,10 +8074,10 @@
         <v>533</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
@@ -8086,7 +8085,7 @@
         <v>178</v>
       </c>
       <c r="B307" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C307">
         <v>33</v>
@@ -8097,7 +8096,7 @@
         <v>179</v>
       </c>
       <c r="B308" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C308">
         <v>34</v>
@@ -8108,7 +8107,7 @@
         <v>180</v>
       </c>
       <c r="B309" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C309">
         <v>35</v>
@@ -8119,7 +8118,7 @@
         <v>181</v>
       </c>
       <c r="B310" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C310">
         <v>36</v>
@@ -8130,7 +8129,7 @@
         <v>182</v>
       </c>
       <c r="B311" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C311">
         <v>37</v>
@@ -8141,7 +8140,7 @@
         <v>183</v>
       </c>
       <c r="B312" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C312">
         <v>38</v>
@@ -8152,7 +8151,7 @@
         <v>184</v>
       </c>
       <c r="B313" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C313">
         <v>39</v>
@@ -8163,7 +8162,7 @@
         <v>185</v>
       </c>
       <c r="B314" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C314">
         <v>40</v>
@@ -8174,7 +8173,7 @@
         <v>186</v>
       </c>
       <c r="B315" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C315">
         <v>41</v>
@@ -8185,7 +8184,7 @@
         <v>187</v>
       </c>
       <c r="B316" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C316">
         <v>42</v>
@@ -8196,7 +8195,7 @@
         <v>188</v>
       </c>
       <c r="B317" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C317">
         <v>43</v>
@@ -8207,7 +8206,7 @@
         <v>189</v>
       </c>
       <c r="B318" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C318">
         <v>44</v>
@@ -8218,7 +8217,7 @@
         <v>190</v>
       </c>
       <c r="B319" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C319">
         <v>45</v>
@@ -8229,7 +8228,7 @@
         <v>191</v>
       </c>
       <c r="B320" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C320">
         <v>46</v>
@@ -8240,7 +8239,7 @@
         <v>192</v>
       </c>
       <c r="B321" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C321">
         <v>47</v>
@@ -8251,7 +8250,7 @@
         <v>193</v>
       </c>
       <c r="B322" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C322">
         <v>48</v>
@@ -8262,7 +8261,7 @@
         <v>194</v>
       </c>
       <c r="B323" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C323">
         <v>49</v>
@@ -8273,7 +8272,7 @@
         <v>195</v>
       </c>
       <c r="B324" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C324">
         <v>50</v>
@@ -8284,7 +8283,7 @@
         <v>196</v>
       </c>
       <c r="B325" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C325">
         <v>51</v>
@@ -8295,7 +8294,7 @@
         <v>197</v>
       </c>
       <c r="B326" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C326">
         <v>52</v>
@@ -8306,7 +8305,7 @@
         <v>198</v>
       </c>
       <c r="B327" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C327">
         <v>53</v>
@@ -8317,7 +8316,7 @@
         <v>199</v>
       </c>
       <c r="B328" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C328">
         <v>54</v>
@@ -8328,7 +8327,7 @@
         <v>200</v>
       </c>
       <c r="B329" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C329">
         <v>55</v>
@@ -8339,7 +8338,7 @@
         <v>201</v>
       </c>
       <c r="B330" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C330">
         <v>56</v>
@@ -8350,7 +8349,7 @@
         <v>202</v>
       </c>
       <c r="B331" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C331">
         <v>57</v>
@@ -8361,7 +8360,7 @@
         <v>203</v>
       </c>
       <c r="B332" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C332">
         <v>58</v>
@@ -8372,7 +8371,7 @@
         <v>204</v>
       </c>
       <c r="B333" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C333">
         <v>59</v>
@@ -8383,7 +8382,7 @@
         <v>205</v>
       </c>
       <c r="B334" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C334">
         <v>60</v>
@@ -8394,7 +8393,7 @@
         <v>206</v>
       </c>
       <c r="B335" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C335">
         <v>61</v>
@@ -8405,7 +8404,7 @@
         <v>207</v>
       </c>
       <c r="B336" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C336">
         <v>62</v>
@@ -8416,7 +8415,7 @@
         <v>208</v>
       </c>
       <c r="B337" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C337">
         <v>63</v>
@@ -8427,7 +8426,7 @@
         <v>209</v>
       </c>
       <c r="B338" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C338">
         <v>64</v>
@@ -8438,7 +8437,7 @@
         <v>210</v>
       </c>
       <c r="B339" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C339">
         <v>65</v>
@@ -8449,7 +8448,7 @@
         <v>211</v>
       </c>
       <c r="B340" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C340">
         <v>66</v>
@@ -8460,7 +8459,7 @@
         <v>212</v>
       </c>
       <c r="B341" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C341">
         <v>67</v>
@@ -8471,7 +8470,7 @@
         <v>213</v>
       </c>
       <c r="B342" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C342">
         <v>68</v>
@@ -8482,7 +8481,7 @@
         <v>214</v>
       </c>
       <c r="B343" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C343">
         <v>69</v>
@@ -8493,7 +8492,7 @@
         <v>215</v>
       </c>
       <c r="B344" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C344">
         <v>70</v>
@@ -8504,7 +8503,7 @@
         <v>216</v>
       </c>
       <c r="B345" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C345">
         <v>71</v>
@@ -8515,7 +8514,7 @@
         <v>217</v>
       </c>
       <c r="B346" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C346">
         <v>72</v>
@@ -8524,10 +8523,10 @@
         <v>535</v>
       </c>
       <c r="E346" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.35">
@@ -8535,7 +8534,7 @@
         <v>218</v>
       </c>
       <c r="B347" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C347">
         <v>73</v>
@@ -8544,10 +8543,10 @@
         <v>532</v>
       </c>
       <c r="E347" s="7" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.35">
@@ -8555,7 +8554,7 @@
         <v>219</v>
       </c>
       <c r="B348" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C348">
         <v>74</v>
@@ -8566,7 +8565,7 @@
         <v>220</v>
       </c>
       <c r="B349" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C349">
         <v>75</v>
@@ -8577,7 +8576,7 @@
         <v>221</v>
       </c>
       <c r="B350" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C350">
         <v>76</v>
@@ -8588,7 +8587,7 @@
         <v>222</v>
       </c>
       <c r="B351" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C351">
         <v>77</v>
@@ -8599,7 +8598,7 @@
         <v>223</v>
       </c>
       <c r="B352" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C352">
         <v>78</v>
@@ -8610,7 +8609,7 @@
         <v>224</v>
       </c>
       <c r="B353" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C353">
         <v>79</v>
@@ -8621,7 +8620,7 @@
         <v>225</v>
       </c>
       <c r="B354" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C354">
         <v>80</v>
@@ -8632,7 +8631,7 @@
         <v>226</v>
       </c>
       <c r="B355" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C355">
         <v>81</v>
@@ -8643,7 +8642,7 @@
         <v>227</v>
       </c>
       <c r="B356" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C356">
         <v>82</v>
@@ -8654,7 +8653,7 @@
         <v>228</v>
       </c>
       <c r="B357" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C357">
         <v>83</v>
@@ -8665,7 +8664,7 @@
         <v>229</v>
       </c>
       <c r="B358" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C358">
         <v>84</v>
@@ -8676,7 +8675,7 @@
         <v>230</v>
       </c>
       <c r="B359" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C359">
         <v>85</v>
@@ -8687,7 +8686,7 @@
         <v>231</v>
       </c>
       <c r="B360" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C360">
         <v>86</v>
@@ -8698,7 +8697,7 @@
         <v>232</v>
       </c>
       <c r="B361" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C361">
         <v>87</v>
@@ -8709,7 +8708,7 @@
         <v>233</v>
       </c>
       <c r="B362" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C362">
         <v>88</v>
@@ -8720,7 +8719,7 @@
         <v>234</v>
       </c>
       <c r="B363" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C363">
         <v>89</v>
@@ -8731,7 +8730,7 @@
         <v>235</v>
       </c>
       <c r="B364" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C364">
         <v>90</v>
@@ -8742,7 +8741,7 @@
         <v>236</v>
       </c>
       <c r="B365" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C365">
         <v>91</v>
@@ -8753,7 +8752,7 @@
         <v>237</v>
       </c>
       <c r="B366" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C366">
         <v>92</v>
@@ -8764,7 +8763,7 @@
         <v>238</v>
       </c>
       <c r="B367" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C367">
         <v>93</v>
@@ -8775,7 +8774,7 @@
         <v>239</v>
       </c>
       <c r="B368" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C368">
         <v>94</v>
@@ -8786,7 +8785,7 @@
         <v>240</v>
       </c>
       <c r="B369" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C369">
         <v>95</v>
@@ -8797,7 +8796,7 @@
         <v>241</v>
       </c>
       <c r="B370" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C370">
         <v>96</v>
@@ -8808,7 +8807,7 @@
         <v>242</v>
       </c>
       <c r="B371" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C371">
         <v>97</v>
@@ -8819,7 +8818,7 @@
         <v>243</v>
       </c>
       <c r="B372" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C372">
         <v>98</v>
@@ -8830,7 +8829,7 @@
         <v>244</v>
       </c>
       <c r="B373" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C373">
         <v>99</v>
@@ -8841,7 +8840,7 @@
         <v>245</v>
       </c>
       <c r="B374" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C374">
         <v>100</v>
@@ -8852,7 +8851,7 @@
         <v>246</v>
       </c>
       <c r="B375" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C375">
         <v>101</v>
@@ -8863,7 +8862,7 @@
         <v>247</v>
       </c>
       <c r="B376" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C376">
         <v>102</v>
@@ -8874,7 +8873,7 @@
         <v>248</v>
       </c>
       <c r="B377" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C377">
         <v>103</v>
@@ -8885,7 +8884,7 @@
         <v>249</v>
       </c>
       <c r="B378" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C378">
         <v>104</v>
@@ -8896,7 +8895,7 @@
         <v>250</v>
       </c>
       <c r="B379" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C379">
         <v>105</v>
@@ -8907,7 +8906,7 @@
         <v>251</v>
       </c>
       <c r="B380" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C380">
         <v>106</v>
@@ -8918,7 +8917,7 @@
         <v>252</v>
       </c>
       <c r="B381" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C381">
         <v>107</v>
@@ -8929,7 +8928,7 @@
         <v>253</v>
       </c>
       <c r="B382" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C382">
         <v>108</v>
@@ -8940,7 +8939,7 @@
         <v>254</v>
       </c>
       <c r="B383" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C383">
         <v>109</v>
@@ -8951,7 +8950,7 @@
         <v>255</v>
       </c>
       <c r="B384" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C384">
         <v>110</v>
@@ -8962,7 +8961,7 @@
         <v>256</v>
       </c>
       <c r="B385" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C385">
         <v>111</v>
@@ -8973,7 +8972,7 @@
         <v>257</v>
       </c>
       <c r="B386" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C386">
         <v>112</v>
@@ -8984,7 +8983,7 @@
         <v>258</v>
       </c>
       <c r="B387" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C387">
         <v>113</v>
@@ -8993,10 +8992,10 @@
         <v>531</v>
       </c>
       <c r="F387" s="7" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="H387" s="7" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.35">
@@ -9004,7 +9003,7 @@
         <v>259</v>
       </c>
       <c r="B388" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C388">
         <v>114</v>
@@ -9013,10 +9012,10 @@
         <v>530</v>
       </c>
       <c r="F388" s="7" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.35">
@@ -9024,7 +9023,7 @@
         <v>260</v>
       </c>
       <c r="B389" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C389">
         <v>115</v>
@@ -9036,7 +9035,7 @@
         <v>525</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.35">
@@ -9044,7 +9043,7 @@
         <v>261</v>
       </c>
       <c r="B390" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C390">
         <v>116</v>
@@ -9053,10 +9052,10 @@
         <v>528</v>
       </c>
       <c r="F390" s="7" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.35">
@@ -9064,7 +9063,7 @@
         <v>262</v>
       </c>
       <c r="B391" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C391">
         <v>117</v>
@@ -9073,10 +9072,10 @@
         <v>527</v>
       </c>
       <c r="F391" s="7" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.35">
@@ -9084,7 +9083,7 @@
         <v>263</v>
       </c>
       <c r="B392" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C392">
         <v>118</v>
@@ -9093,7 +9092,7 @@
         <v>526</v>
       </c>
       <c r="F392" s="7" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.35">
@@ -9101,7 +9100,7 @@
         <v>264</v>
       </c>
       <c r="B393" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C393">
         <v>119</v>
@@ -9112,7 +9111,7 @@
         <v>265</v>
       </c>
       <c r="B394" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C394">
         <v>120</v>
@@ -9123,7 +9122,7 @@
         <v>266</v>
       </c>
       <c r="B395" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C395">
         <v>121</v>
@@ -9134,7 +9133,7 @@
         <v>267</v>
       </c>
       <c r="B396" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C396">
         <v>122</v>
@@ -9145,7 +9144,7 @@
         <v>268</v>
       </c>
       <c r="B397" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C397">
         <v>123</v>
@@ -9156,7 +9155,7 @@
         <v>269</v>
       </c>
       <c r="B398" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C398">
         <v>124</v>
@@ -9167,7 +9166,7 @@
         <v>270</v>
       </c>
       <c r="B399" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C399">
         <v>125</v>
@@ -9178,7 +9177,7 @@
         <v>271</v>
       </c>
       <c r="B400" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C400">
         <v>126</v>
@@ -9189,19 +9188,19 @@
         <v>272</v>
       </c>
       <c r="B401" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C401">
         <v>127</v>
       </c>
       <c r="D401" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="F401" s="7" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -9238,19 +9237,19 @@
         <v>543</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
@@ -9271,10 +9270,10 @@
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -10526,10 +10525,10 @@
         <v>615</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>274</v>
       </c>
@@ -10540,10 +10539,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>618</v>
+        <v>951</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>913</v>
+        <v>946</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -10560,7 +10559,7 @@
         <v>620</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -10574,10 +10573,10 @@
         <v>2</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -10591,16 +10590,16 @@
         <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>621</v>
+        <v>934</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -10614,13 +10613,16 @@
         <v>4</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>940</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -10634,14 +10636,14 @@
         <v>5</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>864</v>
+        <v>936</v>
       </c>
       <c r="F79" s="14"/>
       <c r="H79" s="1" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -10655,17 +10657,17 @@
         <v>6</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>936</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="1" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -10679,19 +10681,19 @@
         <v>7</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>274</v>
       </c>
@@ -10702,16 +10704,13 @@
         <v>8</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>938</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>622</v>
+        <v>919</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>916</v>
+        <v>941</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -10725,14 +10724,16 @@
         <v>9</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>866</v>
-      </c>
-      <c r="F83" s="14"/>
+        <v>944</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>943</v>
+      </c>
       <c r="H83" s="1" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -10746,17 +10747,19 @@
         <v>10</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>940</v>
-      </c>
-      <c r="E84" s="14"/>
+        <v>948</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>944</v>
+      </c>
       <c r="F84" s="1" t="s">
-        <v>865</v>
+        <v>943</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="87" x14ac:dyDescent="0.35">
@@ -10770,15 +10773,19 @@
         <v>11</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>941</v>
-      </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+        <v>948</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>943</v>
+      </c>
       <c r="G85" s="1" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>907</v>
+        <v>947</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -10792,16 +10799,16 @@
         <v>12</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="87" x14ac:dyDescent="0.35">
@@ -10815,17 +10822,17 @@
         <v>13</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>867</v>
+        <v>938</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="1" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="145" x14ac:dyDescent="0.35">
@@ -10839,15 +10846,17 @@
         <v>14</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="E88" s="14"/>
+        <v>949</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>937</v>
+      </c>
       <c r="F88" s="14"/>
       <c r="G88" s="1" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
@@ -10861,16 +10870,16 @@
         <v>15</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>643</v>
+        <v>949</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="116" x14ac:dyDescent="0.35">
@@ -10884,16 +10893,16 @@
         <v>16</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>639</v>
+        <v>939</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -10907,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -10921,10 +10930,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F92" s="14"/>
     </row>
@@ -10939,10 +10948,10 @@
         <v>2</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F93" s="14"/>
     </row>
@@ -10957,10 +10966,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F94" s="14"/>
     </row>
@@ -10975,10 +10984,10 @@
         <v>4</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F95" s="14"/>
     </row>
@@ -10993,10 +11002,10 @@
         <v>5</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F96" s="14"/>
     </row>
@@ -11011,10 +11020,10 @@
         <v>6</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F97" s="14"/>
     </row>
@@ -11029,14 +11038,14 @@
         <v>7</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F98" s="14"/>
       <c r="H98" s="1" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -11050,14 +11059,14 @@
         <v>8</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F99" s="14"/>
       <c r="H99" s="1" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -11071,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -11088,7 +11097,7 @@
         <v>338</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -11102,13 +11111,13 @@
         <v>2</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -11122,13 +11131,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -11142,10 +11151,10 @@
         <v>4</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -11159,10 +11168,10 @@
         <v>5</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -11176,13 +11185,13 @@
         <v>6</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -11320,13 +11329,13 @@
         <v>1</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11340,13 +11349,13 @@
         <v>2</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11360,13 +11369,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11380,13 +11389,13 @@
         <v>4</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11400,13 +11409,13 @@
         <v>5</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11420,13 +11429,13 @@
         <v>6</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11440,13 +11449,13 @@
         <v>7</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -11457,16 +11466,16 @@
         <v>15</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
